--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73C1B4-8483-DD44-A829-FBFD34E29B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDD030-7547-A44B-9798-CB80515EF7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,12 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2329,12 +2329,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
-    <v>128.66999999999999</v>
-    <v>1.5269999999999999</v>
-    <v>-1.18</v>
-    <v>-5.2490000000000002E-3</v>
-    <v>0.99</v>
-    <v>4.4269999999999995E-3</v>
+    <v>152.15</v>
+    <v>1.4964</v>
+    <v>-1.35</v>
+    <v>-8.2459999999999999E-3</v>
+    <v>-6.5000000000000002E-2</v>
+    <v>-4.0030000000000003E-4</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2342,25 +2342,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>226.77</v>
+    <v>166.72</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45037.999782001563</v>
+    <v>45065.965778078127</v>
     <v>0</v>
-    <v>219.9</v>
-    <v>30625970000</v>
+    <v>161.52000000000001</v>
+    <v>22251785569</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>223.75</v>
-    <v>82.098600000000005</v>
-    <v>224.79</v>
-    <v>223.61</v>
-    <v>224.6</v>
-    <v>136961500</v>
+    <v>165.35</v>
+    <v>48.354900000000001</v>
+    <v>163.72</v>
+    <v>162.37</v>
+    <v>162.30500000000001</v>
+    <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>2661341</v>
-    <v>3590717</v>
+    <v>3103599</v>
+    <v>4967418</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2525,9 +2525,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2948,10 +2948,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S93" sqref="S93"/>
+      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3997,15 +3997,15 @@
       </c>
       <c r="W16" s="30">
         <f>X101/P3</f>
-        <v>13.139382878285332</v>
+        <v>9.5466275947045993</v>
       </c>
       <c r="X16" s="30">
         <f>X101/P28</f>
-        <v>77.07322290505887</v>
+        <v>55.998775849225645</v>
       </c>
       <c r="Y16" s="31">
         <f>X101/P106</f>
-        <v>43.853250550564596</v>
+        <v>31.862276615395189</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7415,10 +7415,10 @@
       <c r="P83" s="1">
         <v>-75273000</v>
       </c>
-      <c r="W83" s="59" t="s">
+      <c r="W83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="X83" s="60"/>
+      <c r="X83" s="62"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7469,10 +7469,10 @@
       <c r="P84" s="1">
         <v>133416000</v>
       </c>
-      <c r="W84" s="61" t="s">
+      <c r="W84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="X84" s="62"/>
+      <c r="X84" s="64"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7994,10 +7994,10 @@
       <c r="P93" s="1">
         <v>-13368000</v>
       </c>
-      <c r="W93" s="63" t="s">
+      <c r="W93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="X93" s="64"/>
+      <c r="X93" s="66"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="X95" s="38" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.5269999999999999</v>
+        <v>1.4964</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="X97" s="36">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10668735</v>
+        <v>0.10537002000000001</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8274,10 +8274,10 @@
       <c r="P98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W98" s="63" t="s">
+      <c r="W98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="X98" s="64"/>
+      <c r="X98" s="66"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="X100" s="34">
         <f>X99/X103</f>
-        <v>4.0429370209172255E-2</v>
+        <v>5.4810516766605859E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="X101" s="39" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30625970000</v>
+        <v>22251785569</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="X102" s="34">
         <f>X101/X103</f>
-        <v>0.95957062979082774</v>
+        <v>0.94518948323339413</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="X103" s="40">
         <f>X99+X101</f>
-        <v>31916327000</v>
+        <v>23542142569</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8613,10 +8613,10 @@
       <c r="P104" s="11">
         <v>473244000</v>
       </c>
-      <c r="W104" s="63" t="s">
+      <c r="W104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="X104" s="64"/>
+      <c r="X104" s="66"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>0.10263398507637264</v>
+        <v>9.9947034645467198E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
       <c r="T107" s="42"/>
       <c r="U107" s="45">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>25901645864.900818</v>
+        <v>26896633556.239147</v>
       </c>
       <c r="V107" s="46" t="s">
         <v>148</v>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="U108" s="45">
         <f>U107+U106</f>
-        <v>27728189320.439358</v>
+        <v>28723177011.777687</v>
       </c>
       <c r="V108" s="46" t="s">
         <v>144</v>
@@ -8837,14 +8837,14 @@
       </c>
       <c r="X108" s="50">
         <f>X105</f>
-        <v>0.10263398507637264</v>
+        <v>9.9947034645467198E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="65" t="s">
+      <c r="Q109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="R109" s="66"/>
+      <c r="R109" s="60"/>
     </row>
     <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="Q110" s="51" t="s">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="R110" s="39">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>20570853161.848106</v>
+        <v>21420432684.341885</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="R113" s="39">
         <f>R110+R111-R112</f>
-        <v>20893339161.848106</v>
+        <v>21742918684.341885</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="R115" s="54">
         <f>R113/R114</f>
-        <v>88.483979903468807</v>
+        <v>92.081977179653776</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="R116" s="55" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>223.61</v>
+        <v>162.37</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="R117" s="57">
         <f>R115/R116-1</f>
-        <v>-0.60429327890761231</v>
+        <v>-0.43288798928586703</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDD030-7547-A44B-9798-CB80515EF7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51549EA-68B5-A44F-83F8-6DA06DCC0259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -537,31 +534,53 @@
     <t>Equity Value</t>
   </si>
   <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
     <t>Shares</t>
-  </si>
-  <si>
-    <t>Intrinsic Value</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Upside/Downside</t>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -948,12 +967,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,7 +990,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1009,6 +1021,21 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,11 +1385,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1405,7 +1432,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$P$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$P$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2208,6 +2235,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2330,11 +2417,9 @@
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
     <v>152.15</v>
-    <v>1.4964</v>
-    <v>-1.35</v>
-    <v>-8.2459999999999999E-3</v>
-    <v>-6.5000000000000002E-2</v>
-    <v>-4.0030000000000003E-4</v>
+    <v>1.4519</v>
+    <v>-5.46</v>
+    <v>-3.2502000000000003E-2</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2342,25 +2427,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>166.72</v>
+    <v>165.2955</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45065.965778078127</v>
+    <v>45099.999942753908</v>
     <v>0</v>
-    <v>161.52000000000001</v>
-    <v>22251785569</v>
+    <v>156.01</v>
+    <v>22273712561</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>165.35</v>
-    <v>48.354900000000001</v>
-    <v>163.72</v>
-    <v>162.37</v>
-    <v>162.30500000000001</v>
+    <v>164.84</v>
+    <v>48.003399999999999</v>
+    <v>167.99</v>
+    <v>162.53</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>3103599</v>
-    <v>4967418</v>
+    <v>4056</v>
+    <v>3065581</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2392,8 +2476,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2414,7 +2496,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2431,7 +2512,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2442,16 +2523,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2517,19 +2595,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2574,9 +2646,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2584,9 +2653,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2948,10 +3014,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
+      <selection pane="bottomRight" activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3031,58 +3097,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -3096,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>20194000</v>
@@ -3141,36 +3207,36 @@
         <v>2330853000</v>
       </c>
       <c r="Q3" s="28">
-        <v>3186000000</v>
+        <v>3056000000</v>
       </c>
       <c r="R3" s="28">
-        <v>4034000000</v>
+        <v>3802000000</v>
       </c>
       <c r="S3" s="28">
-        <v>4881000000</v>
+        <v>4726000000</v>
       </c>
       <c r="T3" s="28">
-        <v>5532000000</v>
+        <v>5269000000</v>
       </c>
       <c r="U3" s="28">
-        <v>5995000000</v>
+        <v>5686000000</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3231,23 +3297,23 @@
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.36688156653379678</v>
+        <v>0.31110799351138829</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26616446955429995</v>
+        <v>0.24410994764397898</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20996529499256322</v>
+        <v>0.24302998421883215</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13337430854333121</v>
+        <v>0.11489631823952595</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>8.3694866232827181E-2</v>
+        <v>7.9142152211045813E-2</v>
       </c>
       <c r="V4" s="17">
         <f>(P4+O4+N4)/3</f>
@@ -3262,7 +3328,7 @@
         <v>0.5496504752657444</v>
       </c>
       <c r="Y4" s="17">
-        <f>(P105+O105+N105)/3</f>
+        <f>(P106+O106+N106)/3</f>
         <v>0.81228333234821071</v>
       </c>
     </row>
@@ -3271,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>23223000</v>
@@ -3321,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>-3029000</v>
@@ -3366,16 +3432,16 @@
         <v>974595000</v>
       </c>
       <c r="V6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3383,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>-0.15</v>
@@ -3440,7 +3506,7 @@
         <v>0.17050000000000001</v>
       </c>
       <c r="Y7" s="20">
-        <f>P106/P3</f>
+        <f>P107/P3</f>
         <v>0.2996216406611657</v>
       </c>
     </row>
@@ -3449,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>8411000</v>
@@ -3496,7 +3562,7 @@
     </row>
     <row r="9" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3559,16 +3625,16 @@
         <v>7.2439574696473774E-2</v>
       </c>
       <c r="V9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3576,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>2603000</v>
@@ -3642,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>2651000</v>
@@ -3692,7 +3758,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>5254000</v>
@@ -3737,21 +3803,21 @@
         <v>355104000</v>
       </c>
       <c r="V12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="Y12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3835,46 +3901,46 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1">
         <v>2384000</v>
@@ -3885,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>13665000</v>
@@ -3930,16 +3996,16 @@
         <v>526334000</v>
       </c>
       <c r="V15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3947,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>36888000</v>
@@ -3995,25 +4061,25 @@
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>0.1270665162250425</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="60">
         <f>X101/P3</f>
-        <v>9.5466275947045993</v>
-      </c>
-      <c r="X16" s="30">
+        <v>9.5560348769313208</v>
+      </c>
+      <c r="X16" s="60">
         <f>X101/P28</f>
-        <v>55.998775849225645</v>
-      </c>
-      <c r="Y16" s="31">
-        <f>X101/P106</f>
-        <v>31.862276615395189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>56.053957250567493</v>
+      </c>
+      <c r="Y16" s="61">
+        <f>X101/P107</f>
+        <v>31.893673820903985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>356000</v>
@@ -4058,12 +4124,12 @@
         <v>9438000</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>803000</v>
@@ -4108,15 +4174,24 @@
         <v>56143000</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>-15766000</v>
@@ -4160,14 +4235,41 @@
       <c r="P19" s="10">
         <v>517629000</v>
       </c>
-      <c r="V19" s="32">
+      <c r="Q19" s="56">
+        <v>997800000</v>
+      </c>
+      <c r="R19" s="56">
+        <v>1309000000</v>
+      </c>
+      <c r="S19" s="56">
+        <v>1609000000</v>
+      </c>
+      <c r="T19" s="56">
+        <v>1615000000</v>
+      </c>
+      <c r="U19" s="56">
+        <v>1827000000</v>
+      </c>
+      <c r="V19" s="30">
         <f>P40-P56-P61</f>
         <v>322486000</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="60">
+        <f>X101/Q3</f>
+        <v>7.2885185081806281</v>
+      </c>
+      <c r="X19" s="60">
+        <f>X101/Q28</f>
+        <v>28.237465214249493</v>
+      </c>
+      <c r="Y19" s="61">
+        <f>X101/Q106</f>
+        <v>27.679523500683484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4226,13 +4328,32 @@
         <f t="shared" si="3"/>
         <v>1.6074531908784548</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="16">
+        <f t="shared" ref="Q20" si="4">(Q19/P19)-1</f>
+        <v>0.92763543000875148</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" ref="R20" si="5">(R19/Q19)-1</f>
+        <v>0.31188614952896376</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" ref="T20" si="6">(T19/S19)-1</f>
+        <v>3.7290242386576189E-3</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" ref="U20" si="7">(U19/T19)-1</f>
+        <v>0.13126934984520133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>-0.78069999999999995</v>
@@ -4276,13 +4397,33 @@
       <c r="P21" s="2">
         <v>0.22209999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="57">
+        <f>Q19/Q3</f>
+        <v>0.32650523560209427</v>
+      </c>
+      <c r="R21" s="57">
+        <f t="shared" ref="R21:U21" si="8">R19/R3</f>
+        <v>0.34429247764334558</v>
+      </c>
+      <c r="S21" s="57">
+        <f t="shared" si="8"/>
+        <v>0.34045704612780364</v>
+      </c>
+      <c r="T21" s="57">
+        <f t="shared" si="8"/>
+        <v>0.30650977415069275</v>
+      </c>
+      <c r="U21" s="57">
+        <f t="shared" si="8"/>
+        <v>0.32131551178332746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>-16694000</v>
@@ -4327,12 +4468,12 @@
         <v>448261000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>-0.82669999999999999</v>
@@ -4377,15 +4518,15 @@
         <v>0.1923</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-185000</v>
@@ -4427,21 +4568,21 @@
         <v>3787000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10">
         <v>-37567000</v>
@@ -4477,21 +4618,21 @@
         <v>452048000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>-0.1734</v>
@@ -4527,21 +4668,21 @@
         <v>0.19389999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>651000</v>
@@ -4577,12 +4718,12 @@
         <v>54686000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>-16925000</v>
@@ -4626,10 +4767,25 @@
       <c r="P28" s="11">
         <v>397362000</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="58">
+        <v>788800000</v>
+      </c>
+      <c r="R28" s="58">
+        <v>1067000000</v>
+      </c>
+      <c r="S28" s="58">
+        <v>1360000000</v>
+      </c>
+      <c r="T28" s="58">
+        <v>1501000000</v>
+      </c>
+      <c r="U28" s="58">
+        <v>1568000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4645,56 +4801,76 @@
         <v>0.48275703724112606</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:P29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:P29" si="9">(F28/E28)-1</f>
         <v>0.18358624961288328</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.32196870584541315</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.68926793501331374</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7424242424242422</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.0550674757721219</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.33011176662417363</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.74271995043370509</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-14.859809065107079</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.16849728200163827</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.548080152244486E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7319679062764268</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q29" s="16">
+        <f t="shared" ref="Q29" si="10">(Q28/P28)-1</f>
+        <v>0.98509167962714095</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" ref="R29" si="11">(R28/Q28)-1</f>
+        <v>0.35268762677484777</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" ref="S29" si="12">(S28/R28)-1</f>
+        <v>0.27460168697282095</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" ref="T29" si="13">(T28/S28)-1</f>
+        <v>0.10367647058823537</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" ref="U29" si="14">(U28/T28)-1</f>
+        <v>4.4636908727514912E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>-0.83809999999999996</v>
@@ -4738,13 +4914,33 @@
       <c r="P30" s="2">
         <v>0.17050000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="57">
+        <f>Q28/Q3</f>
+        <v>0.2581151832460733</v>
+      </c>
+      <c r="R30" s="57">
+        <f t="shared" ref="R30:U30" si="15">R28/R3</f>
+        <v>0.28064176749079434</v>
+      </c>
+      <c r="S30" s="57">
+        <f t="shared" si="15"/>
+        <v>0.28776978417266186</v>
+      </c>
+      <c r="T30" s="57">
+        <f t="shared" si="15"/>
+        <v>0.28487379009299679</v>
+      </c>
+      <c r="U30" s="57">
+        <f t="shared" si="15"/>
+        <v>0.27576503693281745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>-14.98</v>
@@ -4788,13 +4984,28 @@
       <c r="P31" s="12">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q31" s="59">
+        <v>5.76</v>
+      </c>
+      <c r="R31" s="59">
+        <v>7.79</v>
+      </c>
+      <c r="S31" s="59">
+        <v>9.93</v>
+      </c>
+      <c r="T31" s="59">
+        <v>10.95</v>
+      </c>
+      <c r="U31" s="59">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>-14.98</v>
@@ -4844,7 +5055,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>1130000</v>
@@ -4894,7 +5105,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>1130000</v>
@@ -4941,7 +5152,7 @@
     </row>
     <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -4949,55 +5160,55 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:P35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:P35" si="16">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>33.770681415929204</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-0.2176299481278984</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.35481457384515291</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.0158234686772156E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4.0300212106379504E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.131900878293601</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.64173875175676476</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.20111166037690351</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.32147481906062098</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7.8043815137795874E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-0.11525669752955932</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.14995898407945144</v>
       </c>
     </row>
@@ -5006,49 +5217,49 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.25">
@@ -5056,49 +5267,49 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5106,7 +5317,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>39993000</v>
@@ -5156,40 +5367,40 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1">
         <v>897335000</v>
@@ -5206,7 +5417,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>39993000</v>
@@ -5256,7 +5467,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>8024000</v>
@@ -5306,7 +5517,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>4521000</v>
@@ -5356,7 +5567,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>418000</v>
@@ -5406,7 +5617,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>52956000</v>
@@ -5456,7 +5667,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>6103000</v>
@@ -5506,19 +5717,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1">
         <v>3745000</v>
@@ -5556,19 +5767,19 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>1811000</v>
@@ -5606,19 +5817,19 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1">
         <v>5556000</v>
@@ -5656,49 +5867,49 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5706,34 +5917,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>74531000</v>
@@ -5756,7 +5967,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>445000</v>
@@ -5806,7 +6017,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>6548000</v>
@@ -5856,49 +6067,49 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5906,7 +6117,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>59504000</v>
@@ -5956,7 +6167,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>6521000</v>
@@ -6006,7 +6217,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>2567000</v>
@@ -6021,7 +6232,7 @@
         <v>3507000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>17000000</v>
@@ -6056,49 +6267,49 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6106,7 +6317,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>595000</v>
@@ -6156,7 +6367,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>3520000</v>
@@ -6206,7 +6417,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>13203000</v>
@@ -6256,7 +6467,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>4336000</v>
@@ -6271,10 +6482,10 @@
         <v>5170000</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>20768000</v>
@@ -6306,7 +6517,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>1044000</v>
@@ -6356,49 +6567,49 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6406,7 +6617,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>2440000</v>
@@ -6456,7 +6667,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>7820000</v>
@@ -6506,49 +6717,49 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6556,7 +6767,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>21023000</v>
@@ -6606,25 +6817,25 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1">
         <v>1000</v>
@@ -6645,7 +6856,7 @@
         <v>1000</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1">
         <v>1000</v>
@@ -6656,7 +6867,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-56518000</v>
@@ -6695,7 +6906,7 @@
         <v>-405737000</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="1">
         <v>-8375000</v>
@@ -6706,7 +6917,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-2707000</v>
@@ -6745,7 +6956,7 @@
         <v>-2020000</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P70" s="1">
         <v>-10882000</v>
@@ -6756,7 +6967,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>4110000</v>
@@ -6806,7 +7017,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>38481000</v>
@@ -6856,7 +7067,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>59504000</v>
@@ -6906,49 +7117,49 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
@@ -6956,49 +7167,49 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -7006,7 +7217,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-16925000</v>
@@ -7056,7 +7267,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>803000</v>
@@ -7106,25 +7317,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>642000</v>
@@ -7156,7 +7367,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1">
         <v>180000</v>
@@ -7203,66 +7414,66 @@
     </row>
     <row r="80" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:P80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:P80" si="17">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8.9135386748539162E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.3444478681824816E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.4178420711194933E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2.199577252882157E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2.9414290990611821E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2.8321857262491857E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.5538238035655804E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.200957249272298E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2.350733490351754E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.615902125196499E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.2316087728824203E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>5.488330051328405E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8.2693160662176232E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>9.3014016756955503E-2</v>
       </c>
     </row>
@@ -7271,7 +7482,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-3269000</v>
@@ -7321,7 +7532,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>-5691000</v>
@@ -7371,7 +7582,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-700000</v>
@@ -7415,26 +7626,26 @@
       <c r="P83" s="1">
         <v>-75273000</v>
       </c>
-      <c r="W83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="X83" s="62"/>
+      <c r="W83" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="X83" s="68"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1">
         <v>16774000</v>
@@ -7469,17 +7680,17 @@
       <c r="P84" s="1">
         <v>133416000</v>
       </c>
-      <c r="W84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="X84" s="64"/>
+      <c r="W84" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="X84" s="70"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>108000</v>
@@ -7521,10 +7732,10 @@
         <v>78167000</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X85" s="24">
         <f>P17</f>
@@ -7536,7 +7747,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>324000</v>
@@ -7578,10 +7789,10 @@
         <v>76032000</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X86" s="24">
         <f>P56</f>
@@ -7593,7 +7804,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>-18887000</v>
@@ -7638,7 +7849,7 @@
         <v>744817000</v>
       </c>
       <c r="W87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X87" s="24">
         <f>P61</f>
@@ -7650,7 +7861,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-2134000</v>
@@ -7694,80 +7905,80 @@
       <c r="P88" s="1">
         <v>-46443000</v>
       </c>
-      <c r="W88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="X88" s="34">
+      <c r="W88" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="X88" s="32">
         <f>X85/(X86+X87)</f>
         <v>7.314254892250749E-3</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:P89" si="18">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="18"/>
+        <v>0.10567495295632366</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="18"/>
+        <v>5.2902158576734075E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="18"/>
+        <v>9.8058492673367983E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="18"/>
+        <v>5.9950710270539692E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="18"/>
+        <v>2.6871838038875481E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="18"/>
+        <v>3.8525286126360844E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="18"/>
+        <v>3.5059580292737001E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="18"/>
+        <v>3.7716489300693448E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="18"/>
+        <v>1.4400732442009184E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="18"/>
+        <v>1.312946966557966E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="18"/>
+        <v>2.3686077782209172E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="18"/>
+        <v>2.6546147141427511E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="18"/>
+        <v>3.7811973381551595E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="18"/>
+        <v>1.9925323475997844E-2</v>
+      </c>
+      <c r="W89" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:P89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10567495295632366</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.2902158576734075E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.8058492673367983E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9950710270539692E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6871838038875481E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8525286126360844E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5059580292737001E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7716489300693448E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4400732442009184E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.312946966557966E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3686077782209172E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6546147141427511E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7811973381551595E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9925323475997844E-2</v>
-      </c>
-      <c r="W89" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="X89" s="24">
         <f>P27</f>
@@ -7779,40 +7990,40 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-2235000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>1050000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-15000000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-5010000</v>
@@ -7836,40 +8047,40 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-5010000</v>
@@ -7880,10 +8091,10 @@
       <c r="P91" s="1">
         <v>-910062000</v>
       </c>
-      <c r="W91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="X91" s="34">
+      <c r="W91" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="X91" s="32">
         <f>X89/X90</f>
         <v>0.12097387888011893</v>
       </c>
@@ -7893,43 +8104,43 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1">
         <v>61569000</v>
@@ -7937,10 +8148,10 @@
       <c r="P92" s="1">
         <v>660129000</v>
       </c>
-      <c r="W92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="X92" s="36">
+      <c r="W92" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="X92" s="34">
         <f>X88*(1-X91)</f>
         <v>6.4294211068172897E-3</v>
       </c>
@@ -7950,22 +8161,22 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>12000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-1050000</v>
@@ -7977,13 +8188,13 @@
         <v>-678000</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1">
         <v>5010000</v>
@@ -7994,17 +8205,17 @@
       <c r="P93" s="1">
         <v>-13368000</v>
       </c>
-      <c r="W93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="X93" s="66"/>
+      <c r="W93" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="X93" s="72"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-2122000</v>
@@ -8049,10 +8260,11 @@
         <v>-371906000</v>
       </c>
       <c r="W94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="X94" s="37">
-        <v>4.095E-2</v>
+        <v>134</v>
+      </c>
+      <c r="X94" s="35">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8060,7 +8272,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-230000</v>
@@ -8102,14 +8314,14 @@
         <v>-291941000</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="X95" s="38" cm="1">
+        <v>135</v>
+      </c>
+      <c r="X95" s="36" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4964</v>
+        <v>1.4519</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8117,13 +8329,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>1858000</v>
@@ -8132,13 +8344,13 @@
         <v>58609000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1">
         <v>16142000</v>
@@ -8150,21 +8362,21 @@
         <v>19766000</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="X96" s="37">
+        <v>136</v>
+      </c>
+      <c r="X96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8173,56 +8385,56 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-500000000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="X97" s="36">
+        <v>91</v>
+      </c>
+      <c r="W97" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="X97" s="34">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10537002000000001</v>
+        <v>0.10513536300000001</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8230,61 +8442,61 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="X98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="W98" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="X98" s="72"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>25745000</v>
@@ -8329,7 +8541,7 @@
         <v>-17126000</v>
       </c>
       <c r="W99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X99" s="24">
         <f>X86+X87</f>
@@ -8341,7 +8553,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>25515000</v>
@@ -8385,12 +8597,12 @@
       <c r="P100" s="10">
         <v>-17126000</v>
       </c>
-      <c r="W100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="X100" s="34">
+      <c r="W100" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="X100" s="32">
         <f>X99/X103</f>
-        <v>5.4810516766605859E-2</v>
+        <v>5.4759514126355366E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8398,13 +8610,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>78000</v>
@@ -8443,11 +8655,11 @@
         <v>-1857000</v>
       </c>
       <c r="W101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="X101" s="39" cm="1">
+        <v>141</v>
+      </c>
+      <c r="X101" s="37" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22251785569</v>
+        <v>22273712561</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8455,7 +8667,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>4506000</v>
@@ -8499,12 +8711,12 @@
       <c r="P102" s="10">
         <v>353928000</v>
       </c>
-      <c r="W102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="X102" s="34">
+      <c r="W102" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="X102" s="32">
         <f>X101/X103</f>
-        <v>0.94518948323339413</v>
+        <v>0.94524048587364462</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8512,7 +8724,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>4136000</v>
@@ -8556,12 +8768,12 @@
       <c r="P103" s="1">
         <v>119316000</v>
       </c>
-      <c r="W103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="X103" s="40">
+      <c r="W103" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="X103" s="38">
         <f>X99+X101</f>
-        <v>23542142569</v>
+        <v>23564069561</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8569,7 +8781,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>8642000</v>
@@ -8613,316 +8825,371 @@
       <c r="P104" s="11">
         <v>473244000</v>
       </c>
-      <c r="W104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="X104" s="66"/>
+      <c r="W104" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="X104" s="72"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:O105" si="19">(C22*(1-$X$91))+C77+C88+C81</f>
+        <v>-19274462.065975294</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="19"/>
+        <v>-18679784.151240576</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="19"/>
+        <v>-12380597.989594027</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="19"/>
+        <v>-57019332.960216612</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="19"/>
+        <v>-8731460.7917743251</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="19"/>
+        <v>3948793.3095600456</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="19"/>
+        <v>-42274115.372703783</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="19"/>
+        <v>-49541937.794216543</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="19"/>
+        <v>-31148290.597458676</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="19"/>
+        <v>8442925.6893073302</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="19"/>
+        <v>91057474.396524265</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="19"/>
+        <v>136776750.99546951</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="19"/>
+        <v>184965965.77354619</v>
+      </c>
+      <c r="P105" s="1">
+        <f>(P22*(1-$X$91))+P77+P88+P81</f>
+        <v>474610128.079319</v>
+      </c>
+      <c r="Q105" s="39">
+        <f>P105*(1+$X$106)</f>
+        <v>568799962.76207101</v>
+      </c>
+      <c r="R105" s="39">
+        <f t="shared" ref="R105:U105" si="20">Q105*(1+$X$106)</f>
+        <v>681682455.76095891</v>
+      </c>
+      <c r="S105" s="39">
+        <f t="shared" si="20"/>
+        <v>816967301.185763</v>
+      </c>
+      <c r="T105" s="39">
+        <f t="shared" si="20"/>
+        <v>979100408.9458251</v>
+      </c>
+      <c r="U105" s="39">
+        <f t="shared" si="20"/>
+        <v>1173410012.1345074</v>
+      </c>
+      <c r="V105" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="W105" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>2.7069383103006661E-3</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.28819740456569098</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>2.8349191562978242</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.87630779908041989</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:P105" si="8">(H106/G106)-1</f>
-        <v>-2.4340019638097909</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.3182040496918717</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35009728199988199</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.28898641862090046</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3679329300125911</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.3730072614973707</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.57529429750802619</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.52991173586139251</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3316439636752135</v>
-      </c>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9947034645467198E-2</v>
+        <v>9.9730273580545051E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:P106" si="21">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="21"/>
+        <v>2.7069383103006661E-3</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="21"/>
+        <v>-0.28819740456569098</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="21"/>
+        <v>2.8349191562978242</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="21"/>
+        <v>-0.87630779908041989</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="21"/>
+        <v>-2.4340019638097909</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="21"/>
+        <v>-4.3182040496918717</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="21"/>
+        <v>0.35009728199988199</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="21"/>
+        <v>-0.28898641862090046</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="21"/>
+        <v>-1.3679329300125911</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="21"/>
+        <v>9.3730072614973707</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="21"/>
+        <v>0.57529429750802619</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="21"/>
+        <v>0.52991173586139251</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="21"/>
+        <v>1.3316439636752135</v>
+      </c>
+      <c r="Q106" s="63">
+        <v>804700000</v>
+      </c>
+      <c r="R106" s="63">
+        <v>1085000000</v>
+      </c>
+      <c r="S106" s="63">
+        <v>1330000000</v>
+      </c>
+      <c r="T106" s="63">
+        <v>1372000000</v>
+      </c>
+      <c r="U106" s="63">
+        <v>1580000000</v>
+      </c>
+      <c r="V106" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="W106" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="X106" s="42">
+        <f>(SUM(Q4:U4)/5)</f>
+        <v>0.19845727916495423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
         <v>-21057000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-21114000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-15029000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-57635000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>-7129000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>10223000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>-33922000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>-45798000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>-32563000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>11981000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>124279000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>195776000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>299520000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>698374000</v>
       </c>
-      <c r="Q106" s="41">
-        <f>P106*(1+$X$106)</f>
-        <v>846440532.63944995</v>
-      </c>
-      <c r="R106" s="41">
-        <f t="shared" ref="R106:U106" si="9">Q106*(1+$X$106)</f>
-        <v>1025899554.2430786</v>
-      </c>
-      <c r="S106" s="41">
-        <f t="shared" si="9"/>
-        <v>1243406777.9271362</v>
-      </c>
-      <c r="T106" s="41">
-        <f t="shared" si="9"/>
-        <v>1507029035.1532953</v>
-      </c>
-      <c r="U106" s="41">
-        <f t="shared" si="9"/>
-        <v>1826543455.5385389</v>
-      </c>
-      <c r="V106" s="42" t="s">
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40"/>
+      <c r="S107" s="40"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="64">
+        <f>U106*(1+X107)/(X108-X107)</f>
+        <v>23338500143.989815</v>
+      </c>
+      <c r="V107" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="W106" s="43" t="s">
+      <c r="W107" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="X106" s="44">
-        <f>(SUM(Q4:U4)/5)</f>
-        <v>0.21201610117136366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="45">
-        <f>U106*(1+X107)/(X108-X107)</f>
-        <v>26896633556.239147</v>
-      </c>
-      <c r="V107" s="46" t="s">
+      <c r="X107" s="45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q108" s="64">
+        <f t="shared" ref="Q108:T108" si="22">Q107+Q106</f>
+        <v>804700000</v>
+      </c>
+      <c r="R108" s="64">
+        <f t="shared" si="22"/>
+        <v>1085000000</v>
+      </c>
+      <c r="S108" s="64">
+        <f t="shared" si="22"/>
+        <v>1330000000</v>
+      </c>
+      <c r="T108" s="64">
+        <f t="shared" si="22"/>
+        <v>1372000000</v>
+      </c>
+      <c r="U108" s="64">
+        <f>U107+U106</f>
+        <v>24918500143.989815</v>
+      </c>
+      <c r="V108" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="W108" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="W107" s="47" t="s">
+      <c r="X108" s="47">
+        <f>X105</f>
+        <v>9.9730273580545051E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="X107" s="48">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="45">
-        <f t="shared" ref="Q108:S108" si="10">Q107+Q106</f>
-        <v>846440532.63944995</v>
-      </c>
-      <c r="R108" s="45">
-        <f t="shared" si="10"/>
-        <v>1025899554.2430786</v>
-      </c>
-      <c r="S108" s="45">
-        <f t="shared" si="10"/>
-        <v>1243406777.9271362</v>
-      </c>
-      <c r="T108" s="45">
-        <f>T107+T106</f>
-        <v>1507029035.1532953</v>
-      </c>
-      <c r="U108" s="45">
-        <f>U107+U106</f>
-        <v>28723177011.777687</v>
-      </c>
-      <c r="V108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="W108" s="49" t="s">
+      <c r="R109" s="66"/>
+    </row>
+    <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q110" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="X108" s="50">
-        <f>X105</f>
-        <v>9.9947034645467198E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="59" t="s">
+      <c r="R110" s="37">
+        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
+        <v>19058268951.739494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q111" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="R109" s="60"/>
-    </row>
-    <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="R110" s="39">
-        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>21420432684.341885</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="R111" s="39">
+      <c r="R111" s="37">
         <f>P40</f>
         <v>1612843000</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="R112" s="39">
+      <c r="Q112" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="R112" s="37">
         <f>X99</f>
         <v>1290357000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="51" t="s">
+      <c r="Q113" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="R113" s="37">
+        <f>R110+R111-R112</f>
+        <v>19380754951.739494</v>
+      </c>
+    </row>
+    <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q114" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="R114" s="49">
+        <f>P34*(1+(V16*5))</f>
+        <v>236125671.38866943</v>
+      </c>
+    </row>
+    <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q115" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="R115" s="51">
+        <f>R113/R114</f>
+        <v>82.078135925501428</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q116" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="R113" s="39">
-        <f>R110+R111-R112</f>
-        <v>21742918684.341885</v>
-      </c>
-    </row>
-    <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="51" t="s">
+      <c r="R116" s="52" cm="1">
+        <f t="array" ref="R116">_FV(A1,"Price")</f>
+        <v>162.53</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q117" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="R114" s="52">
-        <f>P34*(1+(5*V16))</f>
-        <v>236125671.38866943</v>
-      </c>
-    </row>
-    <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="53" t="s">
+      <c r="R117" s="54">
+        <f>R115/R116-1</f>
+        <v>-0.49499701024117748</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q118" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="R115" s="54">
-        <f>R113/R114</f>
-        <v>92.081977179653776</v>
-      </c>
-    </row>
-    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="R116" s="55" cm="1">
-        <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>162.37</v>
-      </c>
-    </row>
-    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="R117" s="57">
-        <f>R115/R116-1</f>
-        <v>-0.43288798928586703</v>
-      </c>
-    </row>
-    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="R118" s="58" t="str">
+      <c r="R118" s="55" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8969,8 +9236,9 @@
     <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1463101/000146310123000025/0001463101-23-000025-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1463101/000146310123000025/0001463101-23-000025-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q1" r:id="rId32" display="https://finbox.com/NASDAQGM:ENPH/explorer/revenue_proj" xr:uid="{09C2F2A3-824C-C541-991C-2D2A0E41195C}"/>
+    <hyperlink ref="V106" r:id="rId33" xr:uid="{1423C5B2-891B-3A44-BC24-B57A048557DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51549EA-68B5-A44F-83F8-6DA06DCC0259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE5BD9-7DF1-6740-A094-523E12450300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -912,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1059,6 +1066,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2253,12 +2266,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2275,14 +2289,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2290,6 +2304,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2417,9 +2432,11 @@
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
     <v>152.15</v>
-    <v>1.4519</v>
-    <v>-5.46</v>
-    <v>-3.2502000000000003E-2</v>
+    <v>1.4594</v>
+    <v>0.52</v>
+    <v>3.277E-3</v>
+    <v>-0.08</v>
+    <v>-5.0250000000000002E-4</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2427,24 +2444,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>165.2955</v>
+    <v>162.56</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45099.999942753908</v>
+    <v>45103.936809560153</v>
     <v>0</v>
-    <v>156.01</v>
-    <v>22273712561</v>
+    <v>158.22999999999999</v>
+    <v>21818727477</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>164.84</v>
-    <v>48.003399999999999</v>
-    <v>167.99</v>
-    <v>162.53</v>
+    <v>159.18</v>
+    <v>46.869300000000003</v>
+    <v>158.69</v>
+    <v>159.21</v>
+    <v>159.13</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>4056</v>
-    <v>3065581</v>
+    <v>2767986</v>
+    <v>3233161</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2476,6 +2494,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2496,6 +2516,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2512,7 +2533,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2523,13 +2544,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2595,13 +2619,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2646,6 +2676,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2653,6 +2686,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3014,10 +3050,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S100" sqref="S100"/>
+      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4063,15 +4099,15 @@
       </c>
       <c r="W16" s="60">
         <f>X101/P3</f>
-        <v>9.5560348769313208</v>
+        <v>9.3608337707268543</v>
       </c>
       <c r="X16" s="60">
         <f>X101/P28</f>
-        <v>56.053957250567493</v>
+        <v>54.908943172724115</v>
       </c>
       <c r="Y16" s="61">
         <f>X101/P107</f>
-        <v>31.893673820903985</v>
+        <v>31.242181806596466</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4256,15 +4292,15 @@
       </c>
       <c r="W19" s="60">
         <f>X101/Q3</f>
-        <v>7.2885185081806281</v>
+        <v>7.1396359545157067</v>
       </c>
       <c r="X19" s="60">
         <f>X101/Q28</f>
-        <v>28.237465214249493</v>
+        <v>27.660658566176469</v>
       </c>
       <c r="Y19" s="61">
         <f>X101/Q106</f>
-        <v>27.679523500683484</v>
+        <v>27.114113926929292</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,7 +4384,7 @@
         <v>0.13126934984520133</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4417,6 +4453,12 @@
         <f t="shared" si="8"/>
         <v>0.32131551178332746</v>
       </c>
+      <c r="X21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4466,6 +4508,14 @@
       </c>
       <c r="P22" s="10">
         <v>448261000</v>
+      </c>
+      <c r="X22" s="73">
+        <f>(-1*P98)/X101</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="74">
+        <f>P107/X101</f>
+        <v>3.2008007833462526E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8264,7 +8314,7 @@
       </c>
       <c r="X94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8321,7 +8371,7 @@
       </c>
       <c r="X95" s="36" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4519</v>
+        <v>1.4594</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8434,7 +8484,7 @@
       </c>
       <c r="X97" s="34">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10513536300000001</v>
+        <v>0.10541263400000001</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8483,8 +8533,8 @@
       <c r="O98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P98" s="1" t="s">
-        <v>91</v>
+      <c r="P98" s="1">
+        <v>0</v>
       </c>
       <c r="W98" s="71" t="s">
         <v>138</v>
@@ -8602,7 +8652,7 @@
       </c>
       <c r="X100" s="32">
         <f>X99/X103</f>
-        <v>5.4759514126355366E-2</v>
+        <v>5.5837651261531625E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8659,7 +8709,7 @@
       </c>
       <c r="X101" s="37" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22273712561</v>
+        <v>21818727477</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8716,7 +8766,7 @@
       </c>
       <c r="X102" s="32">
         <f>X101/X103</f>
-        <v>0.94524048587364462</v>
+        <v>0.94416234873846838</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8773,7 +8823,7 @@
       </c>
       <c r="X103" s="38">
         <f>X99+X101</f>
-        <v>23564069561</v>
+        <v>23109084477</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8918,7 +8968,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9730273580545051E-2</v>
+        <v>9.9885643877724528E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9063,7 +9113,7 @@
       <c r="T107" s="40"/>
       <c r="U107" s="64">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>23338500143.989815</v>
+        <v>23286613812.235622</v>
       </c>
       <c r="V107" s="43" t="s">
         <v>146</v>
@@ -9094,7 +9144,7 @@
       </c>
       <c r="U108" s="64">
         <f>U107+U106</f>
-        <v>24918500143.989815</v>
+        <v>24866613812.235622</v>
       </c>
       <c r="V108" s="43" t="s">
         <v>143</v>
@@ -9104,7 +9154,7 @@
       </c>
       <c r="X108" s="47">
         <f>X105</f>
-        <v>9.9730273580545051E-2</v>
+        <v>9.9885643877724528E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9119,7 +9169,7 @@
       </c>
       <c r="R110" s="37">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>19058268951.739494</v>
+        <v>19013785920.801041</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -9146,7 +9196,7 @@
       </c>
       <c r="R113" s="37">
         <f>R110+R111-R112</f>
-        <v>19380754951.739494</v>
+        <v>19336271920.801041</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9164,7 +9214,7 @@
       </c>
       <c r="R115" s="51">
         <f>R113/R114</f>
-        <v>82.078135925501428</v>
+        <v>81.889748823511013</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9173,7 +9223,7 @@
       </c>
       <c r="R116" s="52" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>162.53</v>
+        <v>159.21</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9182,7 +9232,7 @@
       </c>
       <c r="R117" s="54">
         <f>R115/R116-1</f>
-        <v>-0.49499701024117748</v>
+        <v>-0.48564946408196086</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE5BD9-7DF1-6740-A094-523E12450300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593CBCC-4BB0-0D4F-8368-F7F0C33AD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,13 +567,13 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -919,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -961,78 +908,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,35 +936,67 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1048,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ENPH</a:t>
+              <a:t>Enphase Energy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1132,8 +1057,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4593178286489023"/>
-          <c:y val="3.1620556387725859E-2"/>
+          <c:x val="0.37852312666214738"/>
+          <c:y val="3.1620648426772445E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1170,9 +1095,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.990728476821192E-2"/>
-          <c:y val="0.1423654742595073"/>
+          <c:y val="0.16374775925802548"/>
           <c:w val="0.86976158940397341"/>
-          <c:h val="0.70227972528612193"/>
+          <c:h val="0.65200619320131004"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1629,8 +1554,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31775303749282996"/>
-          <c:y val="0.91851989748887586"/>
+          <c:x val="0.31907754080408823"/>
+          <c:y val="0.90118517999503145"/>
           <c:w val="0.36449392501434008"/>
           <c:h val="4.985954612339831E-2"/>
         </c:manualLayout>
@@ -2219,8 +2144,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2292,7 +2217,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2432,11 +2357,11 @@
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
     <v>152.15</v>
-    <v>1.4594</v>
-    <v>0.52</v>
-    <v>3.277E-3</v>
-    <v>-0.08</v>
-    <v>-5.0250000000000002E-4</v>
+    <v>1.4490000000000001</v>
+    <v>8.7100000000000009</v>
+    <v>5.4858999999999998E-2</v>
+    <v>0.12</v>
+    <v>7.1650000000000001E-4</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2444,25 +2369,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>162.56</v>
+    <v>168.77</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45103.936809560153</v>
+    <v>45107.999801318751</v>
     <v>0</v>
-    <v>158.22999999999999</v>
-    <v>21818727477</v>
+    <v>159.69999999999999</v>
+    <v>22952078876</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>159.18</v>
-    <v>46.869300000000003</v>
-    <v>158.69</v>
-    <v>159.21</v>
-    <v>159.13</v>
+    <v>162.34</v>
+    <v>46.892899999999997</v>
+    <v>158.77000000000001</v>
+    <v>167.48</v>
+    <v>167.6</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>2767986</v>
-    <v>3233161</v>
+    <v>5161776</v>
+    <v>3282067</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2627,9 +2552,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3053,7 +2978,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="M88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
+      <selection pane="bottomRight" activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,19 +3037,19 @@
       <c r="P1" s="8">
         <v>2022</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2023</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2024</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2025</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="23">
         <v>2026</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3242,20 +3167,20 @@
       <c r="P3" s="1">
         <v>2330853000</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="24">
         <v>3056000000</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="24">
         <v>3802000000</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="24">
         <v>4726000000</v>
       </c>
-      <c r="T3" s="28">
-        <v>5269000000</v>
-      </c>
-      <c r="U3" s="28">
-        <v>5686000000</v>
+      <c r="T3" s="24">
+        <v>5427000000</v>
+      </c>
+      <c r="U3" s="24">
+        <v>5883000000</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>108</v>
@@ -3345,11 +3270,11 @@
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11489631823952595</v>
+        <v>0.14832839610664417</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9142152211045813E-2</v>
+        <v>8.4024322830293041E-2</v>
       </c>
       <c r="V4" s="17">
         <f>(P4+O4+N4)/3</f>
@@ -4093,21 +4018,21 @@
       <c r="P16" s="1">
         <v>1882592000</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="25">
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>0.1270665162250425</v>
       </c>
-      <c r="W16" s="60">
+      <c r="W16" s="34">
         <f>X101/P3</f>
-        <v>9.3608337707268543</v>
-      </c>
-      <c r="X16" s="60">
+        <v>9.847072670820511</v>
+      </c>
+      <c r="X16" s="34">
         <f>X101/P28</f>
-        <v>54.908943172724115</v>
-      </c>
-      <c r="Y16" s="61">
+        <v>57.76113185458096</v>
+      </c>
+      <c r="Y16" s="35">
         <f>X101/P107</f>
-        <v>31.242181806596466</v>
+        <v>32.865024866332369</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4271,36 +4196,36 @@
       <c r="P19" s="10">
         <v>517629000</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="30">
         <v>997800000</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="30">
         <v>1309000000</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="30">
         <v>1609000000</v>
       </c>
-      <c r="T19" s="56">
+      <c r="T19" s="30">
         <v>1615000000</v>
       </c>
-      <c r="U19" s="56">
+      <c r="U19" s="30">
         <v>1827000000</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="26">
         <f>P40-P56-P61</f>
         <v>322486000</v>
       </c>
-      <c r="W19" s="60">
+      <c r="W19" s="34">
         <f>X101/Q3</f>
-        <v>7.1396359545157067</v>
-      </c>
-      <c r="X19" s="60">
+        <v>7.510497014397906</v>
+      </c>
+      <c r="X19" s="34">
         <f>X101/Q28</f>
-        <v>27.660658566176469</v>
-      </c>
-      <c r="Y19" s="61">
+        <v>29.097463078093305</v>
+      </c>
+      <c r="Y19" s="35">
         <f>X101/Q106</f>
-        <v>27.114113926929292</v>
+        <v>28.52252873866037</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,31 +4358,31 @@
       <c r="P21" s="2">
         <v>0.22209999999999999</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="31">
         <f>Q19/Q3</f>
         <v>0.32650523560209427</v>
       </c>
-      <c r="R21" s="57">
+      <c r="R21" s="31">
         <f t="shared" ref="R21:U21" si="8">R19/R3</f>
         <v>0.34429247764334558</v>
       </c>
-      <c r="S21" s="57">
+      <c r="S21" s="31">
         <f t="shared" si="8"/>
         <v>0.34045704612780364</v>
       </c>
-      <c r="T21" s="57">
+      <c r="T21" s="31">
         <f t="shared" si="8"/>
-        <v>0.30650977415069275</v>
-      </c>
-      <c r="U21" s="57">
+        <v>0.29758614335728761</v>
+      </c>
+      <c r="U21" s="31">
         <f t="shared" si="8"/>
-        <v>0.32131551178332746</v>
+        <v>0.31055583885772564</v>
       </c>
       <c r="X21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y21" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4509,13 +4434,13 @@
       <c r="P22" s="10">
         <v>448261000</v>
       </c>
-      <c r="X22" s="73">
+      <c r="X22" s="39">
         <f>(-1*P98)/X101</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="74">
+      <c r="Y22" s="40">
         <f>P107/X101</f>
-        <v>3.2008007833462526E-2</v>
+        <v>3.0427483443787727E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4817,19 +4742,19 @@
       <c r="P28" s="11">
         <v>397362000</v>
       </c>
-      <c r="Q28" s="58">
+      <c r="Q28" s="32">
         <v>788800000</v>
       </c>
-      <c r="R28" s="58">
+      <c r="R28" s="32">
         <v>1067000000</v>
       </c>
-      <c r="S28" s="58">
+      <c r="S28" s="32">
         <v>1360000000</v>
       </c>
-      <c r="T28" s="58">
+      <c r="T28" s="32">
         <v>1501000000</v>
       </c>
-      <c r="U28" s="58">
+      <c r="U28" s="32">
         <v>1568000000</v>
       </c>
     </row>
@@ -4964,25 +4889,25 @@
       <c r="P30" s="2">
         <v>0.17050000000000001</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="31">
         <f>Q28/Q3</f>
         <v>0.2581151832460733</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="31">
         <f t="shared" ref="R30:U30" si="15">R28/R3</f>
         <v>0.28064176749079434</v>
       </c>
-      <c r="S30" s="57">
+      <c r="S30" s="31">
         <f t="shared" si="15"/>
         <v>0.28776978417266186</v>
       </c>
-      <c r="T30" s="57">
+      <c r="T30" s="31">
         <f t="shared" si="15"/>
-        <v>0.28487379009299679</v>
-      </c>
-      <c r="U30" s="57">
+        <v>0.27658006264971441</v>
+      </c>
+      <c r="U30" s="31">
         <f t="shared" si="15"/>
-        <v>0.27576503693281745</v>
+        <v>0.26653068162502125</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -5034,19 +4959,19 @@
       <c r="P31" s="12">
         <v>2.94</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="Q31" s="33">
         <v>5.76</v>
       </c>
-      <c r="R31" s="59">
+      <c r="R31" s="33">
         <v>7.79</v>
       </c>
-      <c r="S31" s="59">
+      <c r="S31" s="33">
         <v>9.93</v>
       </c>
-      <c r="T31" s="59">
+      <c r="T31" s="33">
         <v>10.95</v>
       </c>
-      <c r="U31" s="59">
+      <c r="U31" s="33">
         <v>11.44</v>
       </c>
     </row>
@@ -7676,10 +7601,10 @@
       <c r="P83" s="1">
         <v>-75273000</v>
       </c>
-      <c r="W83" s="67" t="s">
+      <c r="W83" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="X83" s="68"/>
+      <c r="X83" s="64"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7730,10 +7655,10 @@
       <c r="P84" s="1">
         <v>133416000</v>
       </c>
-      <c r="W84" s="69" t="s">
+      <c r="W84" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="X84" s="70"/>
+      <c r="X84" s="65"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7784,10 +7709,10 @@
       <c r="P85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W85" s="23" t="s">
+      <c r="W85" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="X85" s="24">
+      <c r="X85" s="42">
         <f>P17</f>
         <v>9438000</v>
       </c>
@@ -7841,10 +7766,10 @@
       <c r="P86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W86" s="23" t="s">
+      <c r="W86" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="X86" s="24">
+      <c r="X86" s="42">
         <f>P56</f>
         <v>90892000</v>
       </c>
@@ -7898,10 +7823,10 @@
       <c r="P87" s="10">
         <v>744817000</v>
       </c>
-      <c r="W87" s="23" t="s">
+      <c r="W87" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="X87" s="24">
+      <c r="X87" s="42">
         <f>P61</f>
         <v>1199465000</v>
       </c>
@@ -7955,10 +7880,10 @@
       <c r="P88" s="1">
         <v>-46443000</v>
       </c>
-      <c r="W88" s="31" t="s">
+      <c r="W88" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="X88" s="32">
+      <c r="X88" s="44">
         <f>X85/(X86+X87)</f>
         <v>7.314254892250749E-3</v>
       </c>
@@ -8027,10 +7952,10 @@
         <f t="shared" si="18"/>
         <v>1.9925323475997844E-2</v>
       </c>
-      <c r="W89" s="23" t="s">
+      <c r="W89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="X89" s="24">
+      <c r="X89" s="42">
         <f>P27</f>
         <v>54686000</v>
       </c>
@@ -8084,10 +8009,10 @@
       <c r="P90" s="1">
         <v>-62162000</v>
       </c>
-      <c r="W90" s="23" t="s">
+      <c r="W90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="24">
+      <c r="X90" s="42">
         <f>P25</f>
         <v>452048000</v>
       </c>
@@ -8141,10 +8066,10 @@
       <c r="P91" s="1">
         <v>-910062000</v>
       </c>
-      <c r="W91" s="31" t="s">
+      <c r="W91" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="X91" s="32">
+      <c r="X91" s="44">
         <f>X89/X90</f>
         <v>0.12097387888011893</v>
       </c>
@@ -8198,10 +8123,10 @@
       <c r="P92" s="1">
         <v>660129000</v>
       </c>
-      <c r="W92" s="33" t="s">
+      <c r="W92" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="X92" s="34">
+      <c r="X92" s="44">
         <f>X88*(1-X91)</f>
         <v>6.4294211068172897E-3</v>
       </c>
@@ -8255,10 +8180,10 @@
       <c r="P93" s="1">
         <v>-13368000</v>
       </c>
-      <c r="W93" s="71" t="s">
+      <c r="W93" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="X93" s="72"/>
+      <c r="X93" s="66"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8309,12 +8234,12 @@
       <c r="P94" s="10">
         <v>-371906000</v>
       </c>
-      <c r="W94" s="23" t="s">
+      <c r="W94" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="X94" s="35">
+      <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8366,12 +8291,12 @@
       <c r="P95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W95" s="23" t="s">
+      <c r="W95" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="X95" s="36" cm="1">
+      <c r="X95" s="46" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4594</v>
+        <v>1.4490000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8423,10 +8348,10 @@
       <c r="P96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W96" s="23" t="s">
+      <c r="W96" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="X96" s="35">
+      <c r="X96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8479,12 +8404,12 @@
       <c r="P97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W97" s="33" t="s">
+      <c r="W97" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="X97" s="34">
+      <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10541263400000001</v>
+        <v>0.10441154000000002</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8536,10 +8461,10 @@
       <c r="P98" s="1">
         <v>0</v>
       </c>
-      <c r="W98" s="71" t="s">
+      <c r="W98" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="X98" s="72"/>
+      <c r="X98" s="66"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8590,10 +8515,10 @@
       <c r="P99" s="1">
         <v>-17126000</v>
       </c>
-      <c r="W99" s="23" t="s">
+      <c r="W99" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="X99" s="24">
+      <c r="X99" s="42">
         <f>X86+X87</f>
         <v>1290357000</v>
       </c>
@@ -8647,12 +8572,12 @@
       <c r="P100" s="10">
         <v>-17126000</v>
       </c>
-      <c r="W100" s="31" t="s">
+      <c r="W100" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="X100" s="32">
+      <c r="X100" s="44">
         <f>X99/X103</f>
-        <v>5.5837651261531625E-2</v>
+        <v>5.3227200707064791E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8704,12 +8629,12 @@
       <c r="P101" s="1">
         <v>-1857000</v>
       </c>
-      <c r="W101" s="23" t="s">
+      <c r="W101" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="X101" s="37" cm="1">
+      <c r="X101" s="47" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21818727477</v>
+        <v>22952078876</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8761,12 +8686,12 @@
       <c r="P102" s="10">
         <v>353928000</v>
       </c>
-      <c r="W102" s="31" t="s">
+      <c r="W102" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="X102" s="32">
+      <c r="X102" s="44">
         <f>X101/X103</f>
-        <v>0.94416234873846838</v>
+        <v>0.94677279929293523</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8818,12 +8743,12 @@
       <c r="P103" s="1">
         <v>119316000</v>
       </c>
-      <c r="W103" s="33" t="s">
+      <c r="W103" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="X103" s="38">
+      <c r="X103" s="48">
         <f>X99+X101</f>
-        <v>23109084477</v>
+        <v>24242435876</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8875,10 +8800,10 @@
       <c r="P104" s="11">
         <v>473244000</v>
       </c>
-      <c r="W104" s="71" t="s">
+      <c r="W104" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="X104" s="72"/>
+      <c r="X104" s="66"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8940,35 +8865,35 @@
         <f>(P22*(1-$X$91))+P77+P88+P81</f>
         <v>474610128.079319</v>
       </c>
-      <c r="Q105" s="39">
+      <c r="Q105" s="27">
         <f>P105*(1+$X$106)</f>
-        <v>568799962.76207101</v>
-      </c>
-      <c r="R105" s="39">
+        <v>572436828.83834648</v>
+      </c>
+      <c r="R105" s="27">
         <f t="shared" ref="R105:U105" si="20">Q105*(1+$X$106)</f>
-        <v>681682455.76095891</v>
-      </c>
-      <c r="S105" s="39">
+        <v>690427581.76399124</v>
+      </c>
+      <c r="S105" s="27">
         <f t="shared" si="20"/>
-        <v>816967301.185763</v>
-      </c>
-      <c r="T105" s="39">
+        <v>832738603.88722122</v>
+      </c>
+      <c r="T105" s="27">
         <f t="shared" si="20"/>
-        <v>979100408.9458251</v>
-      </c>
-      <c r="U105" s="39">
+        <v>1004382792.2290066</v>
+      </c>
+      <c r="U105" s="27">
         <f t="shared" si="20"/>
-        <v>1173410012.1345074</v>
-      </c>
-      <c r="V105" s="40" t="s">
+        <v>1211406302.7902532</v>
+      </c>
+      <c r="V105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="W105" s="25" t="s">
+      <c r="W105" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="X105" s="26">
+      <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9885643877724528E-2</v>
+        <v>9.9196226091969097E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9032,34 +8957,34 @@
         <f t="shared" si="21"/>
         <v>1.3316439636752135</v>
       </c>
-      <c r="Q106" s="63">
+      <c r="Q106" s="37">
         <v>804700000</v>
       </c>
-      <c r="R106" s="63">
+      <c r="R106" s="37">
         <v>1085000000</v>
       </c>
-      <c r="S106" s="63">
+      <c r="S106" s="37">
         <v>1330000000</v>
       </c>
-      <c r="T106" s="63">
+      <c r="T106" s="37">
         <v>1372000000</v>
       </c>
-      <c r="U106" s="63">
+      <c r="U106" s="37">
         <v>1580000000</v>
       </c>
-      <c r="V106" s="40" t="s">
+      <c r="V106" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="W106" s="41" t="s">
+      <c r="W106" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="X106" s="42">
+      <c r="X106" s="52">
         <f>(SUM(Q4:U4)/5)</f>
-        <v>0.19845727916495423</v>
+        <v>0.20612012886222733</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="62" t="s">
+      <c r="A107" s="36" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -9107,139 +9032,139 @@
       <c r="P107" s="1">
         <v>698374000</v>
       </c>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="40"/>
-      <c r="S107" s="40"/>
-      <c r="T107" s="40"/>
-      <c r="U107" s="64">
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="28"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="38">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>23286613812.235622</v>
-      </c>
-      <c r="V107" s="43" t="s">
+        <v>23518623657.842457</v>
+      </c>
+      <c r="V107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="W107" s="44" t="s">
+      <c r="W107" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="X107" s="45">
+      <c r="X107" s="54">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="64">
+      <c r="Q108" s="38">
         <f t="shared" ref="Q108:T108" si="22">Q107+Q106</f>
         <v>804700000</v>
       </c>
-      <c r="R108" s="64">
+      <c r="R108" s="38">
         <f t="shared" si="22"/>
         <v>1085000000</v>
       </c>
-      <c r="S108" s="64">
+      <c r="S108" s="38">
         <f t="shared" si="22"/>
         <v>1330000000</v>
       </c>
-      <c r="T108" s="64">
+      <c r="T108" s="38">
         <f t="shared" si="22"/>
         <v>1372000000</v>
       </c>
-      <c r="U108" s="64">
+      <c r="U108" s="38">
         <f>U107+U106</f>
-        <v>24866613812.235622</v>
-      </c>
-      <c r="V108" s="43" t="s">
+        <v>25098623657.842457</v>
+      </c>
+      <c r="V108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="W108" s="46" t="s">
+      <c r="W108" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="X108" s="47">
+      <c r="X108" s="52">
         <f>X105</f>
-        <v>9.9885643877724528E-2</v>
+        <v>9.9196226091969097E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="65" t="s">
+      <c r="Q109" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="R109" s="66"/>
+      <c r="R109" s="62"/>
     </row>
     <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="48" t="s">
+      <c r="Q110" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="R110" s="37">
+      <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>19013785920.801041</v>
+        <v>19212700298.931736</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="48" t="s">
+      <c r="Q111" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="R111" s="37">
+      <c r="R111" s="47">
         <f>P40</f>
         <v>1612843000</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="48" t="s">
+      <c r="Q112" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="R112" s="37">
+      <c r="R112" s="47">
         <f>X99</f>
         <v>1290357000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="48" t="s">
+      <c r="Q113" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="R113" s="37">
+      <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>19336271920.801041</v>
+        <v>19535186298.931736</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="R114" s="49">
-        <f>P34*(1+(V16*5))</f>
-        <v>236125671.38866943</v>
+      <c r="Q114" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="R114" s="56">
+        <f>P34*(1+(0.05*5))</f>
+        <v>180487500</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="50" t="s">
+      <c r="Q115" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="R115" s="51">
+      <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>81.889748823511013</v>
+        <v>108.23567448677463</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="48" t="s">
+      <c r="Q116" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="R116" s="52" cm="1">
+      <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>159.21</v>
+        <v>167.48</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="53" t="s">
+      <c r="Q117" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="R117" s="54">
+      <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>-0.48564946408196086</v>
+        <v>-0.35373970332711591</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="53" t="s">
+      <c r="Q118" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="R118" s="55" t="str">
+      <c r="R118" s="61" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593CBCC-4BB0-0D4F-8368-F7F0C33AD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEA600-8335-D247-AF0B-FA902A8655D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2185,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2196,10 +2198,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2213,14 +2217,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2230,6 +2234,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2357,11 +2362,11 @@
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
     <v>152.15</v>
-    <v>1.4490000000000001</v>
-    <v>8.7100000000000009</v>
-    <v>5.4858999999999998E-2</v>
-    <v>0.12</v>
-    <v>7.1650000000000001E-4</v>
+    <v>1.4774</v>
+    <v>4.79</v>
+    <v>2.9681000000000003E-2</v>
+    <v>0.71</v>
+    <v>4.2729999999999999E-3</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2369,25 +2374,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>168.77</v>
+    <v>169.5</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45107.999801318751</v>
+    <v>45114.999959941408</v>
     <v>0</v>
-    <v>159.69999999999999</v>
-    <v>22952078876</v>
+    <v>162.28899999999999</v>
+    <v>22772560000</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>162.34</v>
-    <v>46.892899999999997</v>
-    <v>158.77000000000001</v>
-    <v>167.48</v>
-    <v>167.6</v>
+    <v>162.53</v>
+    <v>47.663800000000002</v>
+    <v>161.38</v>
+    <v>166.17</v>
+    <v>166.88</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>5161776</v>
-    <v>3282067</v>
+    <v>3292162</v>
+    <v>3362053</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2975,10 +2980,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R100" sqref="R100"/>
+      <selection pane="bottomRight" activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4024,15 +4029,15 @@
       </c>
       <c r="W16" s="34">
         <f>X101/P3</f>
-        <v>9.847072670820511</v>
+        <v>9.7700541389783062</v>
       </c>
       <c r="X16" s="34">
         <f>X101/P28</f>
-        <v>57.76113185458096</v>
+        <v>57.309355197527694</v>
       </c>
       <c r="Y16" s="35">
         <f>X101/P107</f>
-        <v>32.865024866332369</v>
+        <v>32.607972232643256</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4217,15 +4222,15 @@
       </c>
       <c r="W19" s="34">
         <f>X101/Q3</f>
-        <v>7.510497014397906</v>
+        <v>7.4517539267015707</v>
       </c>
       <c r="X19" s="34">
         <f>X101/Q28</f>
-        <v>29.097463078093305</v>
+        <v>28.869878296146045</v>
       </c>
       <c r="Y19" s="35">
         <f>X101/Q106</f>
-        <v>28.52252873866037</v>
+        <v>28.299440785385858</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,7 +4445,7 @@
       </c>
       <c r="Y22" s="40">
         <f>P107/X101</f>
-        <v>3.0427483443787727E-2</v>
+        <v>3.0667347017638773E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8239,7 +8244,7 @@
       </c>
       <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8296,7 +8301,7 @@
       </c>
       <c r="X95" s="46" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4490000000000001</v>
+        <v>1.4774</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8404,12 +8409,15 @@
       <c r="P97" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="S97" t="s">
+        <v>167</v>
+      </c>
       <c r="W97" s="43" t="s">
         <v>137</v>
       </c>
       <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10441154000000002</v>
+        <v>0.10480986600000002</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8577,7 +8585,7 @@
       </c>
       <c r="X100" s="44">
         <f>X99/X103</f>
-        <v>5.3227200707064791E-2</v>
+        <v>5.3624296671928841E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8634,7 +8642,7 @@
       </c>
       <c r="X101" s="47" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22952078876</v>
+        <v>22772560000</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8691,7 +8699,7 @@
       </c>
       <c r="X102" s="44">
         <f>X101/X103</f>
-        <v>0.94677279929293523</v>
+        <v>0.94637570332807119</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8748,7 +8756,7 @@
       </c>
       <c r="X103" s="48">
         <f>X99+X101</f>
-        <v>24242435876</v>
+        <v>24062917000</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8893,7 +8901,7 @@
       </c>
       <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9196226091969097E-2</v>
+        <v>9.9534283836331644E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9038,7 +9046,7 @@
       <c r="T107" s="28"/>
       <c r="U107" s="38">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>23518623657.842457</v>
+        <v>21728256000.369274</v>
       </c>
       <c r="V107" s="29" t="s">
         <v>146</v>
@@ -9047,7 +9055,7 @@
         <v>147</v>
       </c>
       <c r="X107" s="54">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9069,7 +9077,7 @@
       </c>
       <c r="U108" s="38">
         <f>U107+U106</f>
-        <v>25098623657.842457</v>
+        <v>23308256000.369274</v>
       </c>
       <c r="V108" s="29" t="s">
         <v>143</v>
@@ -9079,7 +9087,7 @@
       </c>
       <c r="X108" s="52">
         <f>X105</f>
-        <v>9.9196226091969097E-2</v>
+        <v>9.9534283836331644E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9094,7 +9102,7 @@
       </c>
       <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>19212700298.931736</v>
+        <v>18071780367.688236</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -9121,7 +9129,7 @@
       </c>
       <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>19535186298.931736</v>
+        <v>18394266367.688236</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9139,7 +9147,7 @@
       </c>
       <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>108.23567448677463</v>
+        <v>101.91435067629745</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9148,7 +9156,7 @@
       </c>
       <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>167.48</v>
+        <v>166.17</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9157,7 +9165,7 @@
       </c>
       <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>-0.35373970332711591</v>
+        <v>-0.38668622088043902</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEA600-8335-D247-AF0B-FA902A8655D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A110A6-5F6E-9641-B577-6D05F15A6110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1557,8 +1557,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31907754080408823"/>
-          <c:y val="0.90118517999503145"/>
+          <c:x val="0.34026959378422061"/>
+          <c:y val="0.90407430931609978"/>
           <c:w val="0.36449392501434008"/>
           <c:h val="4.985954612339831E-2"/>
         </c:manualLayout>
@@ -2183,8 +2183,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2193,21 +2192,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2217,24 +2217,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2363,10 +2351,8 @@
     <v>339.92</v>
     <v>152.15</v>
     <v>1.4774</v>
-    <v>4.79</v>
-    <v>2.9681000000000003E-2</v>
-    <v>0.71</v>
-    <v>4.2729999999999999E-3</v>
+    <v>9.3000000000000007</v>
+    <v>5.5967000000000003E-2</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2374,25 +2360,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>169.5</v>
+    <v>176.24</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45114.999959941408</v>
+    <v>45117.999855635935</v>
     <v>0</v>
-    <v>162.28899999999999</v>
+    <v>163.44</v>
     <v>22772560000</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>162.53</v>
-    <v>47.663800000000002</v>
-    <v>161.38</v>
+    <v>166.13</v>
+    <v>51.825299999999999</v>
     <v>166.17</v>
-    <v>166.88</v>
+    <v>175.47</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>3292162</v>
-    <v>3362053</v>
+    <v>1936</v>
+    <v>3347381</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2424,8 +2409,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2446,7 +2429,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2463,7 +2445,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2474,16 +2456,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2549,19 +2528,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2606,9 +2579,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2616,9 +2586,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2980,10 +2947,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R101" sqref="R101"/>
+      <selection pane="bottomRight" activeCell="Y106" sqref="Y106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3173,13 +3140,13 @@
         <v>2330853000</v>
       </c>
       <c r="Q3" s="24">
-        <v>3056000000</v>
+        <v>3047000000</v>
       </c>
       <c r="R3" s="24">
-        <v>3802000000</v>
+        <v>3779000000</v>
       </c>
       <c r="S3" s="24">
-        <v>4726000000</v>
+        <v>4701000000</v>
       </c>
       <c r="T3" s="24">
         <v>5427000000</v>
@@ -3263,19 +3230,19 @@
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31110799351138829</v>
+        <v>0.30724674614829839</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24410994764397898</v>
+        <v>0.24023629799803081</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24302998421883215</v>
+        <v>0.24397988885948663</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14832839610664417</v>
+        <v>0.15443522654754305</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
@@ -4205,16 +4172,16 @@
         <v>997800000</v>
       </c>
       <c r="R19" s="30">
-        <v>1309000000</v>
+        <v>1273000000</v>
       </c>
       <c r="S19" s="30">
-        <v>1609000000</v>
+        <v>1550000000</v>
       </c>
       <c r="T19" s="30">
-        <v>1615000000</v>
+        <v>1624000000</v>
       </c>
       <c r="U19" s="30">
-        <v>1827000000</v>
+        <v>1904000000</v>
       </c>
       <c r="V19" s="26">
         <f>P40-P56-P61</f>
@@ -4222,15 +4189,15 @@
       </c>
       <c r="W19" s="34">
         <f>X101/Q3</f>
-        <v>7.4517539267015707</v>
+        <v>7.4737643583852966</v>
       </c>
       <c r="X19" s="34">
         <f>X101/Q28</f>
-        <v>28.869878296146045</v>
+        <v>28.998548325480709</v>
       </c>
       <c r="Y19" s="35">
         <f>X101/Q106</f>
-        <v>28.299440785385858</v>
+        <v>28.257302394838071</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,18 +4267,18 @@
       </c>
       <c r="R20" s="16">
         <f t="shared" ref="R20" si="5">(R19/Q19)-1</f>
-        <v>0.31188614952896376</v>
+        <v>0.27580677490479055</v>
       </c>
       <c r="S20" s="16">
         <v>0.91</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" ref="T20" si="6">(T19/S19)-1</f>
-        <v>3.7290242386576189E-3</v>
+        <v>4.7741935483871067E-2</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" ref="U20" si="7">(U19/T19)-1</f>
-        <v>0.13126934984520133</v>
+        <v>0.17241379310344818</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -4365,23 +4332,23 @@
       </c>
       <c r="Q21" s="31">
         <f>Q19/Q3</f>
-        <v>0.32650523560209427</v>
+        <v>0.32746964227108633</v>
       </c>
       <c r="R21" s="31">
         <f t="shared" ref="R21:U21" si="8">R19/R3</f>
-        <v>0.34429247764334558</v>
+        <v>0.33686160359883566</v>
       </c>
       <c r="S21" s="31">
         <f t="shared" si="8"/>
-        <v>0.34045704612780364</v>
+        <v>0.32971708147202722</v>
       </c>
       <c r="T21" s="31">
         <f t="shared" si="8"/>
-        <v>0.29758614335728761</v>
+        <v>0.29924451814999081</v>
       </c>
       <c r="U21" s="31">
         <f t="shared" si="8"/>
-        <v>0.31055583885772564</v>
+        <v>0.32364439911609721</v>
       </c>
       <c r="X21" s="18" t="s">
         <v>164</v>
@@ -4748,13 +4715,13 @@
         <v>397362000</v>
       </c>
       <c r="Q28" s="32">
-        <v>788800000</v>
+        <v>785300000</v>
       </c>
       <c r="R28" s="32">
-        <v>1067000000</v>
+        <v>1073000000</v>
       </c>
       <c r="S28" s="32">
-        <v>1360000000</v>
+        <v>1388000000</v>
       </c>
       <c r="T28" s="32">
         <v>1501000000</v>
@@ -4826,19 +4793,19 @@
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="10">(Q28/P28)-1</f>
-        <v>0.98509167962714095</v>
+        <v>0.97628359027788258</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" ref="R29" si="11">(R28/Q28)-1</f>
-        <v>0.35268762677484777</v>
+        <v>0.3663568063160576</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" ref="S29" si="12">(S28/R28)-1</f>
-        <v>0.27460168697282095</v>
+        <v>0.29356943150046599</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" ref="T29" si="13">(T28/S28)-1</f>
-        <v>0.10367647058823537</v>
+        <v>8.1412103746397735E-2</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" ref="U29" si="14">(U28/T28)-1</f>
@@ -4896,15 +4863,15 @@
       </c>
       <c r="Q30" s="31">
         <f>Q28/Q3</f>
-        <v>0.2581151832460733</v>
+        <v>0.25772891368559236</v>
       </c>
       <c r="R30" s="31">
         <f t="shared" ref="R30:U30" si="15">R28/R3</f>
-        <v>0.28064176749079434</v>
+        <v>0.28393754961630063</v>
       </c>
       <c r="S30" s="31">
         <f t="shared" si="15"/>
-        <v>0.28776978417266186</v>
+        <v>0.29525632844075728</v>
       </c>
       <c r="T30" s="31">
         <f t="shared" si="15"/>
@@ -4965,13 +4932,13 @@
         <v>2.94</v>
       </c>
       <c r="Q31" s="33">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="R31" s="33">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="S31" s="33">
-        <v>9.93</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="T31" s="33">
         <v>10.95</v>
@@ -8244,7 +8211,7 @@
       </c>
       <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8417,7 +8384,7 @@
       </c>
       <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10480986600000002</v>
+        <v>0.10477644800000001</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8875,23 +8842,23 @@
       </c>
       <c r="Q105" s="27">
         <f>P105*(1+$X$106)</f>
-        <v>572436828.83834648</v>
+        <v>572372456.33449399</v>
       </c>
       <c r="R105" s="27">
         <f t="shared" ref="R105:U105" si="20">Q105*(1+$X$106)</f>
-        <v>690427581.76399124</v>
+        <v>690272308.54970407</v>
       </c>
       <c r="S105" s="27">
         <f t="shared" si="20"/>
-        <v>832738603.88722122</v>
+        <v>832457702.45814514</v>
       </c>
       <c r="T105" s="27">
         <f t="shared" si="20"/>
-        <v>1004382792.2290066</v>
+        <v>1003931083.137162</v>
       </c>
       <c r="U105" s="27">
         <f t="shared" si="20"/>
-        <v>1211406302.7902532</v>
+        <v>1210725321.7945087</v>
       </c>
       <c r="V105" s="28" t="s">
         <v>162</v>
@@ -8901,7 +8868,7 @@
       </c>
       <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9534283836331644E-2</v>
+        <v>9.9502657853077811E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8966,19 +8933,19 @@
         <v>1.3316439636752135</v>
       </c>
       <c r="Q106" s="37">
-        <v>804700000</v>
+        <v>805900000</v>
       </c>
       <c r="R106" s="37">
-        <v>1085000000</v>
+        <v>1053000000</v>
       </c>
       <c r="S106" s="37">
-        <v>1330000000</v>
+        <v>1275000000</v>
       </c>
       <c r="T106" s="37">
-        <v>1372000000</v>
+        <v>1376000000</v>
       </c>
       <c r="U106" s="37">
-        <v>1580000000</v>
+        <v>1656000000</v>
       </c>
       <c r="V106" s="28" t="s">
         <v>163</v>
@@ -8988,7 +8955,7 @@
       </c>
       <c r="X106" s="52">
         <f>(SUM(Q4:U4)/5)</f>
-        <v>0.20612012886222733</v>
+        <v>0.20598449647673039</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9046,7 +9013,7 @@
       <c r="T107" s="28"/>
       <c r="U107" s="38">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>21728256000.369274</v>
+        <v>22783079811.02285</v>
       </c>
       <c r="V107" s="29" t="s">
         <v>146</v>
@@ -9061,23 +9028,23 @@
     <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="Q108" s="38">
         <f t="shared" ref="Q108:T108" si="22">Q107+Q106</f>
-        <v>804700000</v>
+        <v>805900000</v>
       </c>
       <c r="R108" s="38">
         <f t="shared" si="22"/>
-        <v>1085000000</v>
+        <v>1053000000</v>
       </c>
       <c r="S108" s="38">
         <f t="shared" si="22"/>
-        <v>1330000000</v>
+        <v>1275000000</v>
       </c>
       <c r="T108" s="38">
         <f t="shared" si="22"/>
-        <v>1372000000</v>
+        <v>1376000000</v>
       </c>
       <c r="U108" s="38">
         <f>U107+U106</f>
-        <v>23308256000.369274</v>
+        <v>24439079811.02285</v>
       </c>
       <c r="V108" s="29" t="s">
         <v>143</v>
@@ -9087,7 +9054,7 @@
       </c>
       <c r="X108" s="52">
         <f>X105</f>
-        <v>9.9534283836331644E-2</v>
+        <v>9.9502657853077811E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9102,7 +9069,7 @@
       </c>
       <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>18071780367.688236</v>
+        <v>18713855233.296329</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -9129,7 +9096,7 @@
       </c>
       <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>18394266367.688236</v>
+        <v>19036341233.296329</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9147,7 +9114,7 @@
       </c>
       <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>101.91435067629745</v>
+        <v>105.47179850846364</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9156,7 +9123,7 @@
       </c>
       <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>166.17</v>
+        <v>175.47</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9165,7 +9132,7 @@
       </c>
       <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>-0.38668622088043902</v>
+        <v>-0.39891834211851807</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A110A6-5F6E-9641-B577-6D05F15A6110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE50350-1512-934A-BC4C-C77CE6043BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -986,6 +986,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,9 +998,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2193,6 +2192,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2204,7 +2204,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2223,6 +2223,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2350,9 +2351,11 @@
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
     <v>152.15</v>
-    <v>1.4774</v>
-    <v>9.3000000000000007</v>
-    <v>5.5967000000000003E-2</v>
+    <v>1.4684999999999999</v>
+    <v>1.66</v>
+    <v>9.3360000000000005E-3</v>
+    <v>0.53</v>
+    <v>2.9529999999999999E-3</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2360,24 +2363,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>176.24</v>
+    <v>182.26</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45117.999855635935</v>
+    <v>45132.999666747659</v>
     <v>0</v>
-    <v>163.44</v>
-    <v>22772560000</v>
+    <v>178.01</v>
+    <v>24595232839</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>166.13</v>
-    <v>51.825299999999999</v>
-    <v>166.17</v>
-    <v>175.47</v>
+    <v>178.47</v>
+    <v>53.006700000000002</v>
+    <v>177.81</v>
+    <v>179.47</v>
+    <v>180</v>
     <v>137043700</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>1936</v>
-    <v>3347381</v>
+    <v>2901016</v>
+    <v>3825325</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2409,6 +2413,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2429,6 +2435,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2445,7 +2452,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2456,13 +2463,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2528,13 +2538,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2579,6 +2595,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2586,6 +2605,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2947,10 +2969,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y106" sqref="Y106"/>
+      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3171,60 +3193,60 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>2.0534317123898189</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>1.4249201277955272</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:U4" si="0">(F3/E3)-1</f>
         <v>0.44912822776429051</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>7.4617635385225922E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.47695902012488944</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>3.8804433795477822E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>-9.7013567567718839E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>-0.11291387546459764</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>0.10480979571297788</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>0.97474372072280091</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>0.24040375889148891</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>0.78461310004196672</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.68651979777851579</v>
       </c>
@@ -3996,15 +4018,15 @@
       </c>
       <c r="W16" s="34">
         <f>X101/P3</f>
-        <v>9.7700541389783062</v>
+        <v>10.552030882685438</v>
       </c>
       <c r="X16" s="34">
         <f>X101/P28</f>
-        <v>57.309355197527694</v>
+        <v>61.896288117635805</v>
       </c>
       <c r="Y16" s="35">
         <f>X101/P107</f>
-        <v>32.607972232643256</v>
+        <v>35.21785295414778</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4189,15 +4211,15 @@
       </c>
       <c r="W19" s="34">
         <f>X101/Q3</f>
-        <v>7.4737643583852966</v>
+        <v>8.0719503902198877</v>
       </c>
       <c r="X19" s="34">
         <f>X101/Q28</f>
-        <v>28.998548325480709</v>
+        <v>31.319537551254296</v>
       </c>
       <c r="Y19" s="35">
         <f>X101/Q106</f>
-        <v>28.257302394838071</v>
+        <v>30.518963691525002</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4412,7 +4434,7 @@
       </c>
       <c r="Y22" s="40">
         <f>P107/X101</f>
-        <v>3.0667347017638773E-2</v>
+        <v>2.8394689514490267E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7573,10 +7595,10 @@
       <c r="P83" s="1">
         <v>-75273000</v>
       </c>
-      <c r="W83" s="63" t="s">
+      <c r="W83" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="X83" s="64"/>
+      <c r="X83" s="66"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7627,10 +7649,10 @@
       <c r="P84" s="1">
         <v>133416000</v>
       </c>
-      <c r="W84" s="65" t="s">
+      <c r="W84" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="X84" s="65"/>
+      <c r="X84" s="67"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8103,7 +8125,7 @@
         <v>6.4294211068172897E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -8152,10 +8174,10 @@
       <c r="P93" s="1">
         <v>-13368000</v>
       </c>
-      <c r="W93" s="66" t="s">
+      <c r="W93" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="X93" s="66"/>
+      <c r="X93" s="67"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8211,7 +8233,7 @@
       </c>
       <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8268,7 +8290,7 @@
       </c>
       <c r="X95" s="46" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4774</v>
+        <v>1.4684999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8384,10 +8406,10 @@
       </c>
       <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10477644800000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>0.10502628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -8436,10 +8458,10 @@
       <c r="P98" s="1">
         <v>0</v>
       </c>
-      <c r="W98" s="66" t="s">
+      <c r="W98" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="X98" s="66"/>
+      <c r="X98" s="67"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8552,7 +8574,7 @@
       </c>
       <c r="X100" s="44">
         <f>X99/X103</f>
-        <v>5.3624296671928841E-2</v>
+        <v>4.9848468125532522E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8609,7 +8631,7 @@
       </c>
       <c r="X101" s="47" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22772560000</v>
+        <v>24595232839</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8666,7 +8688,7 @@
       </c>
       <c r="X102" s="44">
         <f>X101/X103</f>
-        <v>0.94637570332807119</v>
+        <v>0.95015153187446744</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8723,10 +8745,10 @@
       </c>
       <c r="X103" s="48">
         <f>X99+X101</f>
-        <v>24062917000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25885589839</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8775,10 +8797,10 @@
       <c r="P104" s="11">
         <v>473244000</v>
       </c>
-      <c r="W104" s="66" t="s">
+      <c r="W104" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="X104" s="66"/>
+      <c r="X104" s="67"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8868,7 +8890,7 @@
       </c>
       <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.9502657853077811E-2</v>
+        <v>0.10011137762218554</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9013,7 +9035,7 @@
       <c r="T107" s="28"/>
       <c r="U107" s="38">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>22783079811.02285</v>
+        <v>22598440525.721916</v>
       </c>
       <c r="V107" s="29" t="s">
         <v>146</v>
@@ -9044,7 +9066,7 @@
       </c>
       <c r="U108" s="38">
         <f>U107+U106</f>
-        <v>24439079811.02285</v>
+        <v>24254440525.721916</v>
       </c>
       <c r="V108" s="29" t="s">
         <v>143</v>
@@ -9054,14 +9076,14 @@
       </c>
       <c r="X108" s="52">
         <f>X105</f>
-        <v>9.9502657853077811E-2</v>
+        <v>0.10011137762218554</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="62" t="s">
+      <c r="Q109" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="R109" s="62"/>
+      <c r="R109" s="64"/>
     </row>
     <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="Q110" s="56" t="s">
@@ -9069,7 +9091,7 @@
       </c>
       <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>18713855233.296329</v>
+        <v>18552192608.474419</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -9096,7 +9118,7 @@
       </c>
       <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>19036341233.296329</v>
+        <v>18874678608.474419</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9114,7 +9136,7 @@
       </c>
       <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>105.47179850846364</v>
+        <v>104.57609866874115</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9123,7 +9145,7 @@
       </c>
       <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>175.47</v>
+        <v>179.47</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9132,7 +9154,7 @@
       </c>
       <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>-0.39891834211851807</v>
+        <v>-0.41730596384498164</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE50350-1512-934A-BC4C-C77CE6043BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB824C33-87A5-B14F-80AB-63BA896A26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,24 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$105:$B$105</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$1:$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28:$B$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$C$105:$P$105</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$C$1:$P$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$C$28:$P$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$C$3:$P$3</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$A$28:$B$28</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">'Sheet 1'!$C$105:$P$105</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">'Sheet 1'!$C$1:$P$1</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">'Sheet 1'!$C$28:$P$28</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">'Sheet 1'!$C$3:$P$3</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$105:$B$105</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -73,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -577,6 +595,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -753,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -864,12 +885,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1000,6 +1030,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,14 +1087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37852312666214738"/>
-          <c:y val="3.1620648426772445E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1096,10 +1120,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.990728476821192E-2"/>
-          <c:y val="0.16374775925802548"/>
-          <c:w val="0.86976158940397341"/>
-          <c:h val="0.65200619320131004"/>
+          <c:x val="8.7999999999999995E-2"/>
+          <c:y val="0.15792748096490195"/>
+          <c:w val="0.83372470978441116"/>
+          <c:h val="0.63204383991411583"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1156,6 +1180,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$C$3:$P$3</c:f>
@@ -1209,7 +1284,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6406-5847-AB1A-297AEF9C7FAC}"/>
+              <c16:uniqueId val="{00000000-A91C-CB4F-B609-76D63743D3F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1218,11 +1293,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1263,60 +1338,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$P$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-15766000</c:v>
+                  <c:v>-16925000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-19313000</c:v>
+                  <c:v>-21777000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26252000</c:v>
+                  <c:v>-32290000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25563000</c:v>
+                  <c:v>-38218000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16014000</c:v>
+                  <c:v>-25913000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2836000</c:v>
+                  <c:v>-8052000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9663000</c:v>
+                  <c:v>-22082000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-52576000</c:v>
+                  <c:v>-67462000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28401000</c:v>
+                  <c:v>-45192000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9073000</c:v>
+                  <c:v>-11627000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113924000</c:v>
+                  <c:v>161148000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>158514000</c:v>
+                  <c:v>133995000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>198519000</c:v>
+                  <c:v>145449000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>517629000</c:v>
+                  <c:v>397362000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6406-5847-AB1A-297AEF9C7FAC}"/>
+              <c16:uniqueId val="{00000001-A91C-CB4F-B609-76D63743D3F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,14 +1451,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
+              <c:f>'Sheet 1'!$A$105:$B$105</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Levered FCF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>- -</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,60 +1493,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$107:$P$107</c:f>
+              <c:f>'Sheet 1'!$C$105:$P$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-21057000</c:v>
+                  <c:v>-19274462.065975294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21114000</c:v>
+                  <c:v>-18679784.151240576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15029000</c:v>
+                  <c:v>-12380597.989594027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-57635000</c:v>
+                  <c:v>-57019332.960216612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7129000</c:v>
+                  <c:v>-8731460.7917743251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10223000</c:v>
+                  <c:v>3948793.3095600456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33922000</c:v>
+                  <c:v>-42274115.372703783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-45798000</c:v>
+                  <c:v>-49541937.794216543</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-32563000</c:v>
+                  <c:v>-31148290.597458676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11981000</c:v>
+                  <c:v>8442925.6893073302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124279000</c:v>
+                  <c:v>91057474.396524265</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195776000</c:v>
+                  <c:v>136776750.99546951</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>299520000</c:v>
+                  <c:v>184965965.77354619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>698374000</c:v>
+                  <c:v>474610128.079319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6406-5847-AB1A-297AEF9C7FAC}"/>
+              <c16:uniqueId val="{00000002-A91C-CB4F-B609-76D63743D3F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1437,11 +1611,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1543126608"/>
-        <c:axId val="1543128816"/>
+        <c:axId val="717363471"/>
+        <c:axId val="717365199"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1543126608"/>
+        <c:axId val="717363471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543128816"/>
+        <c:crossAx val="717365199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1543128816"/>
+        <c:axId val="717365199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1538,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543126608"/>
+        <c:crossAx val="717363471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,10 +1730,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34026959378422061"/>
-          <c:y val="0.90407430931609978"/>
-          <c:w val="0.36449392501434008"/>
-          <c:h val="4.985954612339831E-2"/>
+          <c:x val="0.32220441101578723"/>
+          <c:y val="0.896377814215635"/>
+          <c:w val="0.37416487118214697"/>
+          <c:h val="6.5359925102377911E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2139,22 +2313,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F07D53-16BD-1138-B33B-B17FE9ECF665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF9133F-136B-9C74-D8B0-9313E1CB8528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,20 +2365,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.2480000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2224,6 +2401,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2350,12 +2530,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
-    <v>152.15</v>
-    <v>1.4684999999999999</v>
-    <v>1.66</v>
-    <v>9.3360000000000005E-3</v>
-    <v>0.53</v>
-    <v>2.9529999999999999E-3</v>
+    <v>118.14</v>
+    <v>1.5147999999999999</v>
+    <v>-2.4649999999999999</v>
+    <v>-2.0154000000000002E-2</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -2363,25 +2541,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>182.26</v>
+    <v>122.79</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45132.999666747659</v>
+    <v>45184.825092707812</v>
     <v>0</v>
-    <v>178.01</v>
-    <v>24595232839</v>
+    <v>119.44</v>
+    <v>16341512913</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>178.47</v>
-    <v>53.006700000000002</v>
-    <v>177.81</v>
-    <v>179.47</v>
-    <v>180</v>
-    <v>137043700</v>
+    <v>121.55</v>
+    <v>31.094000000000001</v>
+    <v>122.31</v>
+    <v>119.845</v>
+    <v>136355400</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>2901016</v>
-    <v>3825325</v>
+    <v>1993680</v>
+    <v>2856924</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2413,8 +2590,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2435,7 +2610,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2452,7 +2626,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2463,16 +2637,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2538,19 +2709,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2595,9 +2760,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2605,9 +2767,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2969,10 +3128,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
+      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3162,19 +3321,19 @@
         <v>2330853000</v>
       </c>
       <c r="Q3" s="24">
-        <v>3047000000</v>
+        <v>2653000000</v>
       </c>
       <c r="R3" s="24">
-        <v>3779000000</v>
+        <v>3184000000</v>
       </c>
       <c r="S3" s="24">
-        <v>4701000000</v>
+        <v>4128000000</v>
       </c>
       <c r="T3" s="24">
-        <v>5427000000</v>
+        <v>4843000000</v>
       </c>
       <c r="U3" s="24">
-        <v>5883000000</v>
+        <v>5452000000</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>108</v>
@@ -3252,23 +3411,23 @@
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30724674614829839</v>
+        <v>0.13820991714192177</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24023629799803081</v>
+        <v>0.20015077271013948</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24397988885948663</v>
+        <v>0.29648241206030157</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15443522654754305</v>
+        <v>0.17320736434108519</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>8.4024322830293041E-2</v>
+        <v>0.12574850299401197</v>
       </c>
       <c r="V4" s="17">
         <f>(P4+O4+N4)/3</f>
@@ -4018,15 +4177,15 @@
       </c>
       <c r="W16" s="34">
         <f>X101/P3</f>
-        <v>10.552030882685438</v>
+        <v>7.0109581826910574</v>
       </c>
       <c r="X16" s="34">
         <f>X101/P28</f>
-        <v>61.896288117635805</v>
+        <v>41.125001668503785</v>
       </c>
       <c r="Y16" s="35">
         <f>X101/P107</f>
-        <v>35.21785295414778</v>
+        <v>23.399371845171785</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4191,19 +4350,19 @@
         <v>517629000</v>
       </c>
       <c r="Q19" s="30">
-        <v>997800000</v>
+        <v>871000000</v>
       </c>
       <c r="R19" s="30">
-        <v>1273000000</v>
+        <v>1180000000</v>
       </c>
       <c r="S19" s="30">
-        <v>1550000000</v>
+        <v>1495000000</v>
       </c>
       <c r="T19" s="30">
-        <v>1624000000</v>
+        <v>1785000000</v>
       </c>
       <c r="U19" s="30">
-        <v>1904000000</v>
+        <v>2033000000</v>
       </c>
       <c r="V19" s="26">
         <f>P40-P56-P61</f>
@@ -4211,15 +4370,15 @@
       </c>
       <c r="W19" s="34">
         <f>X101/Q3</f>
-        <v>8.0719503902198877</v>
+        <v>6.1596354741801731</v>
       </c>
       <c r="X19" s="34">
         <f>X101/Q28</f>
-        <v>31.319537551254296</v>
+        <v>22.804232365336311</v>
       </c>
       <c r="Y19" s="35">
         <f>X101/Q106</f>
-        <v>30.518963691525002</v>
+        <v>23.686784915205102</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,22 +4444,22 @@
       </c>
       <c r="Q20" s="16">
         <f t="shared" ref="Q20" si="4">(Q19/P19)-1</f>
-        <v>0.92763543000875148</v>
+        <v>0.68267233868272448</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" ref="R20" si="5">(R19/Q19)-1</f>
-        <v>0.27580677490479055</v>
+        <v>0.354764638346728</v>
       </c>
       <c r="S20" s="16">
         <v>0.91</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" ref="T20" si="6">(T19/S19)-1</f>
-        <v>4.7741935483871067E-2</v>
+        <v>0.19397993311036799</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" ref="U20" si="7">(U19/T19)-1</f>
-        <v>0.17241379310344818</v>
+        <v>0.13893557422969183</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -4352,25 +4511,25 @@
       <c r="P21" s="2">
         <v>0.22209999999999999</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="69">
         <f>Q19/Q3</f>
-        <v>0.32746964227108633</v>
-      </c>
-      <c r="R21" s="31">
+        <v>0.32830757632868451</v>
+      </c>
+      <c r="R21" s="69">
         <f t="shared" ref="R21:U21" si="8">R19/R3</f>
-        <v>0.33686160359883566</v>
-      </c>
-      <c r="S21" s="31">
+        <v>0.37060301507537691</v>
+      </c>
+      <c r="S21" s="69">
         <f t="shared" si="8"/>
-        <v>0.32971708147202722</v>
-      </c>
-      <c r="T21" s="31">
+        <v>0.36216085271317827</v>
+      </c>
+      <c r="T21" s="69">
         <f t="shared" si="8"/>
-        <v>0.29924451814999081</v>
-      </c>
-      <c r="U21" s="31">
+        <v>0.36857319843072478</v>
+      </c>
+      <c r="U21" s="69">
         <f t="shared" si="8"/>
-        <v>0.32364439911609721</v>
+        <v>0.37289068231841527</v>
       </c>
       <c r="X21" s="18" t="s">
         <v>164</v>
@@ -4434,7 +4593,7 @@
       </c>
       <c r="Y22" s="40">
         <f>P107/X101</f>
-        <v>2.8394689514490267E-2</v>
+        <v>4.2736189954874347E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4737,19 +4896,19 @@
         <v>397362000</v>
       </c>
       <c r="Q28" s="32">
-        <v>785300000</v>
+        <v>716600000</v>
       </c>
       <c r="R28" s="32">
-        <v>1073000000</v>
+        <v>945100000</v>
       </c>
       <c r="S28" s="32">
-        <v>1388000000</v>
+        <v>1278000000</v>
       </c>
       <c r="T28" s="32">
-        <v>1501000000</v>
+        <v>1451000000</v>
       </c>
       <c r="U28" s="32">
-        <v>1568000000</v>
+        <v>1324000000</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4815,23 +4974,23 @@
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="10">(Q28/P28)-1</f>
-        <v>0.97628359027788258</v>
+        <v>0.80339337933672561</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" ref="R29" si="11">(R28/Q28)-1</f>
-        <v>0.3663568063160576</v>
+        <v>0.31886687133686853</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" ref="S29" si="12">(S28/R28)-1</f>
-        <v>0.29356943150046599</v>
+        <v>0.35223785842767952</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" ref="T29" si="13">(T28/S28)-1</f>
-        <v>8.1412103746397735E-2</v>
+        <v>0.13536776212832557</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" ref="U29" si="14">(U28/T28)-1</f>
-        <v>4.4636908727514912E-2</v>
+        <v>-8.7525844245348039E-2</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4885,23 +5044,23 @@
       </c>
       <c r="Q30" s="31">
         <f>Q28/Q3</f>
-        <v>0.25772891368559236</v>
+        <v>0.27010931021485113</v>
       </c>
       <c r="R30" s="31">
         <f t="shared" ref="R30:U30" si="15">R28/R3</f>
-        <v>0.28393754961630063</v>
+        <v>0.2968278894472362</v>
       </c>
       <c r="S30" s="31">
         <f t="shared" si="15"/>
-        <v>0.29525632844075728</v>
+        <v>0.30959302325581395</v>
       </c>
       <c r="T30" s="31">
         <f t="shared" si="15"/>
-        <v>0.27658006264971441</v>
+        <v>0.29960768118934544</v>
       </c>
       <c r="U30" s="31">
         <f t="shared" si="15"/>
-        <v>0.26653068162502125</v>
+        <v>0.24284666177549524</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4954,19 +5113,19 @@
         <v>2.94</v>
       </c>
       <c r="Q31" s="33">
-        <v>5.73</v>
+        <v>5.27</v>
       </c>
       <c r="R31" s="33">
-        <v>7.83</v>
+        <v>6.95</v>
       </c>
       <c r="S31" s="33">
-        <v>10.130000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="T31" s="33">
-        <v>10.95</v>
+        <v>10.67</v>
       </c>
       <c r="U31" s="33">
-        <v>11.44</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8233,7 +8392,7 @@
       </c>
       <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.2480000000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8290,7 +8449,7 @@
       </c>
       <c r="X95" s="46" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.4684999999999999</v>
+        <v>1.5147999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8406,7 +8565,7 @@
       </c>
       <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10502628</v>
+        <v>0.105374496</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,7 +8733,7 @@
       </c>
       <c r="X100" s="44">
         <f>X99/X103</f>
-        <v>4.9848468125532522E-2</v>
+        <v>7.3183219157522156E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8631,7 +8790,7 @@
       </c>
       <c r="X101" s="47" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>24595232839</v>
+        <v>16341512913</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8688,7 +8847,7 @@
       </c>
       <c r="X102" s="44">
         <f>X101/X103</f>
-        <v>0.95015153187446744</v>
+        <v>0.92681678084247787</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8740,12 +8899,15 @@
       <c r="P103" s="1">
         <v>119316000</v>
       </c>
+      <c r="V103" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="W103" s="43" t="s">
         <v>143</v>
       </c>
       <c r="X103" s="48">
         <f>X99+X101</f>
-        <v>25885589839</v>
+        <v>17631869913</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8797,6 +8959,30 @@
       <c r="P104" s="11">
         <v>473244000</v>
       </c>
+      <c r="Q104" s="68">
+        <f>(Q106/P105)-1</f>
+        <v>0.45361415440485664</v>
+      </c>
+      <c r="R104" s="68">
+        <f>(R106/Q106)-1</f>
+        <v>0.42194520945064506</v>
+      </c>
+      <c r="S104" s="68">
+        <f>(S106/R106)-1</f>
+        <v>0.26197757390417942</v>
+      </c>
+      <c r="T104" s="68">
+        <f>(T106/S106)-1</f>
+        <v>0.23747980613893382</v>
+      </c>
+      <c r="U104" s="68">
+        <f>(U106/T106)-1</f>
+        <v>0.164490861618799</v>
+      </c>
+      <c r="V104" s="68">
+        <f>SUM(Q104:U104)/5</f>
+        <v>0.30790152110348279</v>
+      </c>
       <c r="W104" s="67" t="s">
         <v>144</v>
       </c>
@@ -8864,23 +9050,23 @@
       </c>
       <c r="Q105" s="27">
         <f>P105*(1+$X$106)</f>
-        <v>572372456.33449399</v>
+        <v>563248217.75829363</v>
       </c>
       <c r="R105" s="27">
         <f t="shared" ref="R105:U105" si="20">Q105*(1+$X$106)</f>
-        <v>690272308.54970407</v>
+        <v>668440338.79292631</v>
       </c>
       <c r="S105" s="27">
         <f t="shared" si="20"/>
-        <v>832457702.45814514</v>
+        <v>793278118.66657782</v>
       </c>
       <c r="T105" s="27">
         <f t="shared" si="20"/>
-        <v>1003931083.137162</v>
+        <v>941430576.5740608</v>
       </c>
       <c r="U105" s="27">
         <f t="shared" si="20"/>
-        <v>1210725321.7945087</v>
+        <v>1117251956.9786408</v>
       </c>
       <c r="V105" s="28" t="s">
         <v>162</v>
@@ -8890,7 +9076,7 @@
       </c>
       <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>0.10011137762218554</v>
+        <v>9.8133376899534761E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8955,19 +9141,19 @@
         <v>1.3316439636752135</v>
       </c>
       <c r="Q106" s="37">
-        <v>805900000</v>
+        <v>689900000</v>
       </c>
       <c r="R106" s="37">
-        <v>1053000000</v>
+        <v>981000000</v>
       </c>
       <c r="S106" s="37">
-        <v>1275000000</v>
+        <v>1238000000</v>
       </c>
       <c r="T106" s="37">
-        <v>1376000000</v>
+        <v>1532000000</v>
       </c>
       <c r="U106" s="37">
-        <v>1656000000</v>
+        <v>1784000000</v>
       </c>
       <c r="V106" s="28" t="s">
         <v>163</v>
@@ -8977,7 +9163,7 @@
       </c>
       <c r="X106" s="52">
         <f>(SUM(Q4:U4)/5)</f>
-        <v>0.20598449647673039</v>
+        <v>0.18675979384949198</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9035,7 +9221,7 @@
       <c r="T107" s="28"/>
       <c r="U107" s="38">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>22598440525.721916</v>
+        <v>25003631413.219109</v>
       </c>
       <c r="V107" s="29" t="s">
         <v>146</v>
@@ -9050,23 +9236,23 @@
     <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="Q108" s="38">
         <f t="shared" ref="Q108:T108" si="22">Q107+Q106</f>
-        <v>805900000</v>
+        <v>689900000</v>
       </c>
       <c r="R108" s="38">
         <f t="shared" si="22"/>
-        <v>1053000000</v>
+        <v>981000000</v>
       </c>
       <c r="S108" s="38">
         <f t="shared" si="22"/>
-        <v>1275000000</v>
+        <v>1238000000</v>
       </c>
       <c r="T108" s="38">
         <f t="shared" si="22"/>
-        <v>1376000000</v>
+        <v>1532000000</v>
       </c>
       <c r="U108" s="38">
         <f>U107+U106</f>
-        <v>24254440525.721916</v>
+        <v>26787631413.219109</v>
       </c>
       <c r="V108" s="29" t="s">
         <v>143</v>
@@ -9076,7 +9262,7 @@
       </c>
       <c r="X108" s="52">
         <f>X105</f>
-        <v>0.10011137762218554</v>
+        <v>9.8133376899534761E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -9091,7 +9277,7 @@
       </c>
       <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>18552192608.474419</v>
+        <v>20204996688.318863</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -9118,7 +9304,7 @@
       </c>
       <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>18874678608.474419</v>
+        <v>20527482688.318863</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9136,7 +9322,7 @@
       </c>
       <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>104.57609866874115</v>
+        <v>113.73354214734462</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9145,7 +9331,7 @@
       </c>
       <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>179.47</v>
+        <v>119.845</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9154,7 +9340,7 @@
       </c>
       <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>-0.41730596384498164</v>
+        <v>-5.0994683571741639E-2</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1139EB-B8A9-4643-ABE4-1DDB9325CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99964F5-0CE8-F54E-9E43-93DC7AE649CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1551,13 +1551,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1574,7 +1571,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1586,9 +1583,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1715,12 +1709,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
-    <v>79.55</v>
-    <v>1.6024</v>
-    <v>-14.09</v>
-    <v>-0.14649599999999999</v>
-    <v>-0.28999999999999998</v>
-    <v>-3.5330000000000001E-3</v>
+    <v>74.7</v>
+    <v>1.5457000000000001</v>
+    <v>-1.93</v>
+    <v>-2.4483000000000001E-2</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -1728,25 +1720,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>84.85</v>
+    <v>79.23</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45226.999820625002</v>
+    <v>45239.041038425785</v>
     <v>0</v>
-    <v>79.55</v>
-    <v>11209490000</v>
+    <v>76.8</v>
+    <v>10500787280</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>82.19</v>
-    <v>24.417000000000002</v>
-    <v>96.18</v>
-    <v>82.09</v>
-    <v>81.8</v>
+    <v>78.83</v>
+    <v>19.522400000000001</v>
+    <v>78.83</v>
+    <v>76.900000000000006</v>
     <v>136551200</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>19391283</v>
-    <v>4485625</v>
+    <v>215</v>
+    <v>6115223</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1778,8 +1769,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1800,7 +1789,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1817,7 +1805,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1828,16 +1816,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1903,19 +1888,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1960,9 +1939,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1970,9 +1946,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13867,7 +13840,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13916,7 +13889,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>11209490000</v>
+        <v>10500787280</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>201</v>
@@ -13944,7 +13917,7 @@
       </c>
       <c r="I3" s="44">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>21109720271.610626</v>
+        <v>21440666429.931602</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>205</v>
@@ -13989,14 +13962,14 @@
       </c>
       <c r="I4" s="54">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>16770748458.190928</v>
+        <v>17059284704.981785</v>
       </c>
       <c r="J4" s="51" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="43" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-0.14649599999999999</v>
+        <v>-2.4483000000000001E-2</v>
       </c>
       <c r="L4" s="42" t="s">
         <v>212</v>
@@ -14039,14 +14012,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>17276743458.190926</v>
+        <v>17565279704.981785</v>
       </c>
       <c r="J5" s="51" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>82.09</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>219</v>
@@ -14064,7 +14037,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>4.8483953287197235</v>
+        <v>4.5418630103806228</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>221</v>
@@ -14092,14 +14065,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>9.5114619282308049E-2</v>
+        <v>9.4032369158719348E-2</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>95.942310016359187</v>
+        <v>97.544627843648627</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>225</v>
@@ -14117,14 +14090,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>17.992760834670946</v>
+        <v>16.855196276083468</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="68">
         <f>F14/O21</f>
-        <v>4.8304592767091009E-2</v>
+        <v>5.1206904866560793E-2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>228</v>
@@ -14151,7 +14124,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.16874540158800322</v>
+        <v>0.26846070017748525</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -14456,7 +14429,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="47"/>
     </row>
@@ -14506,7 +14479,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6024</v>
+        <v>1.5457000000000001</v>
       </c>
       <c r="P15" s="47"/>
     </row>
@@ -14561,7 +14534,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10541532000000001</v>
+        <v>0.10489485300000001</v>
       </c>
       <c r="P17" s="47"/>
     </row>
@@ -14636,7 +14609,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>11209490000</v>
+        <v>10500787280</v>
       </c>
       <c r="P20" s="47"/>
     </row>
@@ -14658,7 +14631,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>12503987000</v>
+        <v>11795284280</v>
       </c>
       <c r="P21" s="47"/>
     </row>
@@ -14681,7 +14654,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.10352673911129306</v>
+        <v>0.10974699458451713</v>
       </c>
       <c r="P22" s="47"/>
     </row>
@@ -14704,7 +14677,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.89647326088870694</v>
+        <v>0.89025300541548291</v>
       </c>
       <c r="P23" s="47"/>
     </row>
@@ -14744,7 +14717,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5114619282308049E-2</v>
+        <v>9.4032369158719348E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="47"/>

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99964F5-0CE8-F54E-9E43-93DC7AE649CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3A67E-D9F0-A943-AE58-0B9E84FEC3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -824,6 +821,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -980,6 +986,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1063,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1108,65 +1120,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1175,23 +1130,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,7 +1345,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1209,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,248 +1441,261 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1571,7 +1750,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1709,10 +1888,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>339.92</v>
-    <v>74.7</v>
-    <v>1.5457000000000001</v>
-    <v>-1.93</v>
-    <v>-2.4483000000000001E-2</v>
+    <v>73.489999999999995</v>
+    <v>1.6049</v>
+    <v>5.5</v>
+    <v>5.4444999999999993E-2</v>
+    <v>0.48</v>
+    <v>4.5059999999999996E-3</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -1720,24 +1901,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>79.23</v>
+    <v>106.74</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45239.041038425785</v>
+    <v>45261.905302152343</v>
     <v>0</v>
-    <v>76.8</v>
-    <v>10500787280</v>
+    <v>98.88</v>
+    <v>14545433824</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>78.83</v>
-    <v>19.522400000000001</v>
-    <v>78.83</v>
-    <v>76.900000000000006</v>
+    <v>100.17</v>
+    <v>25.645700000000001</v>
+    <v>101.02</v>
+    <v>106.52</v>
+    <v>107</v>
     <v>136551200</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>215</v>
-    <v>6115223</v>
+    <v>4326050</v>
+    <v>5895222</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1769,6 +1951,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1789,6 +1973,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1805,7 +1990,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1816,13 +2001,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1888,13 +2076,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1939,6 +2133,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1946,6 +2143,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2331,10 +2531,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
+    <sheetView topLeftCell="A162" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A117" sqref="A117"/>
-      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12477,8 +12677,8 @@
       <c r="N172" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="5" t="s">
-        <v>24</v>
+      <c r="O172" s="5">
+        <v>0</v>
       </c>
       <c r="P172" s="4" t="s">
         <v>24</v>
@@ -13830,454 +14030,476 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A191:S195 A2:S2 A9:S11 A13:S13 A37:S128 A130:S142 A144:S187 A188:C188 N188:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A191:S195 A2:S2 A9:S11 A13:S13 A37:S128 A130:S142 A144:S171 A188:C188 N188:S188 A173:S187 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FFBC51-0500-4C48-A6DB-D3867351791F}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" cm="1">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>10500787280</v>
-      </c>
-      <c r="B3" s="40" t="s">
+        <v>14545433824</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="53">
         <f>Financials!O8*0.01</f>
         <v>0.43920000000000003</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="53">
         <f>SUM(C11:E11)/3</f>
         <v>0.57051221890399051</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="55">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>6.3746186123713855E-2</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="44">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>21440666429.931602</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="56">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>19589971164.944275</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="58">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="O3" s="120"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>505995000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="41">
         <f>Financials!O17*0.01</f>
         <v>0.2266</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="41">
         <f>SUM(C13:E13)/3</f>
         <v>0.5496504752657444</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="63">
         <f>A5*(1+(5*G3))</f>
         <v>180074291.05308238</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="54">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>17059284704.981785</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="40">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>15447261264.674788</v>
+      </c>
+      <c r="J4" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="43" cm="1">
+      <c r="K4" s="64" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.4483000000000001E-2</v>
-      </c>
-      <c r="L4" s="42" t="s">
+        <v>5.4444999999999993E-2</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="119" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" cm="1">
+      <c r="O4" s="122"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>136551200</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="55">
+      <c r="B5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="41">
         <f>Financials!O34*0.01</f>
         <v>0.20480000000000001</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="41">
+        <f>SUM(C16:E16)/3</f>
+        <v>0.82151615931580346</v>
+      </c>
+      <c r="F5" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="50">
-        <f>SUM(C15:E15)/3</f>
-        <v>0.82151615931580346</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="52">
+      <c r="G5" s="63">
         <f>Financials!O56</f>
         <v>1800492000</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="40">
+        <f>I4+G5-G6</f>
+        <v>15953256264.674789</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="54">
-        <f>I4+G5-G6</f>
-        <v>17565279704.981785</v>
-      </c>
-      <c r="J5" s="51" t="s">
+      <c r="K5" s="67" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>106.52</v>
+      </c>
+      <c r="L5" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>76.900000000000006</v>
-      </c>
-      <c r="L5" s="49" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="58">
+      <c r="O5" s="103">
         <f>Financials!O21</f>
         <v>8909000</v>
       </c>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
         <f>O20/F10</f>
-        <v>4.5418630103806228</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="50">
+        <v>6.2912776055363322</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="41">
         <f>Financials!O190</f>
         <v>0.31217747190326189</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="41">
         <f>Financials!O33/Financials!O126</f>
         <v>0.58876892247171719</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="F6" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="63">
         <f>Financials!O96+Financials!O105</f>
         <v>1294497000</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="64">
+        <f>N25</f>
+        <v>0.1005539652170902</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
-        <f>N25</f>
-        <v>9.4032369158719348E-2</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="K6" s="42">
+        <f>I5/G4</f>
+        <v>88.592636802174511</v>
+      </c>
+      <c r="L6" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
-        <f>I5/G4</f>
-        <v>97.544627843648627</v>
-      </c>
-      <c r="L6" s="63" t="s">
+      <c r="M6" s="39"/>
+      <c r="N6" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="65">
+      <c r="O6" s="103">
         <f>Financials!O96</f>
         <v>93383000</v>
       </c>
-      <c r="P6" s="47"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>16.855196276083468</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>23.347405817014447</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="73">
+        <f>F15/O21</f>
+        <v>3.8131479658032631E-2</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
-        <f>F14/O21</f>
-        <v>5.1206904866560793E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="70">
+      <c r="E7" s="74">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.20962103742075724</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="75">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.3309832436584079</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="74" t="s">
+      <c r="K7" s="79">
+        <f>K6/K5-1</f>
+        <v>-0.16830044308886116</v>
+      </c>
+      <c r="L7" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
-        <f>K6/K5-1</f>
-        <v>0.26846070017748525</v>
-      </c>
-      <c r="L7" s="76" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="65">
+      <c r="O7" s="103">
         <f>Financials!O105</f>
         <v>1201114000</v>
       </c>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="79">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="105">
         <f>O5/(O6+O7)</f>
         <v>6.8822098467590112E-3</v>
       </c>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="83">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="83">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="84">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="85">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="86">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="86">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="86">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="87">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="65">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="103">
         <f>Financials!O25</f>
         <v>93371000</v>
       </c>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="89">
+        <v>624333000</v>
+      </c>
+      <c r="C10" s="89">
+        <v>774425000</v>
+      </c>
+      <c r="D10" s="89">
+        <v>1382049000</v>
+      </c>
+      <c r="E10" s="90">
+        <v>2330853000</v>
+      </c>
+      <c r="F10" s="89">
+        <v>2312000000</v>
+      </c>
+      <c r="G10" s="89">
+        <v>2026000000</v>
+      </c>
+      <c r="H10" s="89">
+        <v>2988000000</v>
+      </c>
+      <c r="I10" s="89">
+        <v>3484000000</v>
+      </c>
+      <c r="J10" s="90">
+        <v>4166000000</v>
+      </c>
+      <c r="K10" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
-        <v>624333000</v>
-      </c>
-      <c r="C10" s="87">
-        <v>774425000</v>
-      </c>
-      <c r="D10" s="87">
-        <v>1382049000</v>
-      </c>
-      <c r="E10" s="87">
-        <v>2330853000</v>
-      </c>
-      <c r="F10" s="88">
-        <v>2312000000</v>
-      </c>
-      <c r="G10" s="87">
-        <v>2026000000</v>
-      </c>
-      <c r="H10" s="87">
-        <v>2988000000</v>
-      </c>
-      <c r="I10" s="87">
-        <v>3484000000</v>
-      </c>
-      <c r="J10" s="87">
-        <v>4166000000</v>
-      </c>
-      <c r="K10" s="89" t="s">
+      <c r="L10" s="43"/>
+      <c r="N10" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="65">
+      <c r="O10" s="103">
         <f>Financials!O24</f>
         <v>666000000</v>
       </c>
-      <c r="P10" s="47"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="92"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.24040375889148891</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.78461310004196672</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>0.68651979777851579</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>-8.0884551707035568E-3</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>-0.12370242214532867</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0.47482724580454105</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.16599732262382871</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="93">
         <f t="shared" si="0"/>
         <v>0.19575200918484503</v>
       </c>
@@ -14285,94 +14507,98 @@
         <f>SUM(F11:J11)/5</f>
         <v>0.14095714005943652</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="94">
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="106">
         <f>O9/O10</f>
         <v>0.14019669669669671</v>
       </c>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="89">
         <v>161148000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="89">
         <v>133995000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="89">
         <v>145449000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="89">
         <v>397362000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="94">
         <v>623000000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="89">
         <v>588000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="89">
         <v>898000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="89">
         <v>976000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="90">
         <v>1061000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="96">
+      <c r="O12" s="106">
         <f>O8*(1-O11)</f>
         <v>5.9173467602699186E-3</v>
       </c>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="92"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.16849728200163827</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>8.548080152244486E-2</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>1.7319679062764268</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.5678399041679878</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>-5.6179775280898903E-2</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0.52721088435374153</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>8.6859688195991103E-2</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="93">
         <f t="shared" si="1"/>
         <v>8.7090163934426146E-2</v>
       </c>
@@ -14380,1195 +14606,1350 @@
         <f>SUM(F13:J13)/5</f>
         <v>0.24256417307424954</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="122"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="48">
+        <f>B12/B10</f>
+        <v>0.25811225740109844</v>
+      </c>
+      <c r="C14" s="48">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.17302514769022179</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.10524156524117452</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.17047921941023308</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.2694636678200692</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.29022704837117475</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.30053547523427043</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.28013777267508611</v>
+      </c>
+      <c r="J14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.25468074891982717</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="106">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="89">
+        <v>124279000</v>
+      </c>
+      <c r="C15" s="89">
+        <v>195776000</v>
+      </c>
+      <c r="D15" s="89">
+        <v>299520000</v>
+      </c>
+      <c r="E15" s="89">
+        <v>706670249</v>
+      </c>
+      <c r="F15" s="94">
+        <v>604000000</v>
+      </c>
+      <c r="G15" s="89">
+        <v>620000000</v>
+      </c>
+      <c r="H15" s="89">
+        <v>842000000</v>
+      </c>
+      <c r="I15" s="89">
+        <v>1067000000</v>
+      </c>
+      <c r="J15" s="90">
+        <v>1444000000</v>
+      </c>
+      <c r="K15" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="87">
-        <v>124279000</v>
-      </c>
-      <c r="C14" s="87">
-        <v>195776000</v>
-      </c>
-      <c r="D14" s="87">
-        <v>299520000</v>
-      </c>
-      <c r="E14" s="87">
-        <v>706670249</v>
-      </c>
-      <c r="F14" s="88">
-        <v>604000000</v>
-      </c>
-      <c r="G14" s="87">
-        <v>620000000</v>
-      </c>
-      <c r="H14" s="87">
-        <v>842000000</v>
-      </c>
-      <c r="I14" s="87">
-        <v>1067000000</v>
-      </c>
-      <c r="J14" s="87">
-        <v>1444000000</v>
-      </c>
-      <c r="K14" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="94">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="107" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.6049</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.57529429750802619</v>
       </c>
-      <c r="D15" s="91">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>0.52991173586139251</v>
       </c>
-      <c r="E15" s="91">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>1.3593424445779916</v>
       </c>
-      <c r="F15" s="92">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>-0.14528735169661855</v>
       </c>
-      <c r="G15" s="91">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>2.6490066225165476E-2</v>
       </c>
-      <c r="H15" s="91">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>0.35806451612903234</v>
       </c>
-      <c r="I15" s="91">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>0.26722090261282649</v>
       </c>
-      <c r="J15" s="91">
-        <f t="shared" si="2"/>
+      <c r="J16" s="93">
+        <f t="shared" si="3"/>
         <v>0.35332708528584811</v>
       </c>
-      <c r="K15" s="93">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="93">
+        <f>SUM(F16:J16)/5</f>
         <v>0.17196304371125076</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="98" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5457000000000001</v>
-      </c>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+      <c r="O16" s="106">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="48">
+        <f>B15/B10</f>
+        <v>0.19905883558934095</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.25280175614165351</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.21672169365919733</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.30318095950280866</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.26124567474048443</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.3060217176702863</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.2817938420348059</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.30625717566016075</v>
+      </c>
+      <c r="J17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.34661545847335573</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="109">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.10897632100000001</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="98">
         <v>0.20911966750936453</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="98">
         <v>0.17159953022489807</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="98">
         <v>0.11028236547682473</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="98">
         <v>0.15973295430378132</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="94">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="47"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10489485300000001</v>
-      </c>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Renewable Energy</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="107">
+      <c r="O18" s="122"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="110">
         <f>O6+O7</f>
         <v>1294497000</v>
       </c>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="110" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>14545433824</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Renewable Energy</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2006</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="110">
+        <f>O19+O20</f>
+        <v>15839930824</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="123" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>10500787280</v>
-      </c>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>11795284280</v>
-      </c>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="O22" s="111">
+        <f>(O19/O21)</f>
+        <v>8.1723652355768645E-2</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
-        <f>(O19/O21)</f>
-        <v>0.10974699458451713</v>
-      </c>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+      <c r="O23" s="112">
+        <f>O20/O21</f>
+        <v>0.91827634764423138</v>
+      </c>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
-        <f>O20/O21</f>
-        <v>0.89025300541548291</v>
-      </c>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="O24" s="114"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4032369158719348E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
+        <v>0.1005539652170902</v>
+      </c>
+      <c r="O25" s="116"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="47"/>
-      <c r="P88" s="47"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="47"/>
-      <c r="P96" s="47"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="47"/>
-      <c r="P99" s="47"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="47"/>
-      <c r="P100" s="47"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="47"/>
-      <c r="P101" s="47"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="47"/>
-      <c r="P102" s="47"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="47"/>
-      <c r="P105" s="47"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="47"/>
-      <c r="P106" s="47"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="47"/>
-      <c r="P107" s="47"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="47"/>
-      <c r="P108" s="47"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="47"/>
-      <c r="P109" s="47"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="47"/>
-      <c r="P110" s="47"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15576,8 +15957,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGM:ENPH/explorer/revenue_proj" xr:uid="{BED9DE57-BDFC-A44D-B948-CB7A8FA535B6}"/>

--- a/Technology/Hardware/Enphase Energy.xlsx
+++ b/Technology/Hardware/Enphase Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3A67E-D9F0-A943-AE58-0B9E84FEC3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4C21A-9DA5-4946-A43F-E47D65A2DF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,7 +1732,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1750,7 +1753,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,6 +1765,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1887,13 +1893,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>339.92</v>
+    <v>338.1</v>
     <v>73.489999999999995</v>
-    <v>1.6049</v>
-    <v>5.5</v>
-    <v>5.4444999999999993E-2</v>
-    <v>0.48</v>
-    <v>4.5059999999999996E-3</v>
+    <v>1.5831999999999999</v>
+    <v>-4.16</v>
+    <v>-3.8816999999999997E-2</v>
+    <v>0.04</v>
+    <v>3.8830000000000006E-4</v>
     <v>USD</v>
     <v>Enphase Energy, Inc. is a global energy technology company. The Company designs, develops, manufactures and sells home energy solutions that manage energy generation, energy storage and control and communications on one platform. Its Enphase Energy System brings a high technology, networked approach to solar generation plus energy storage, by leveraging its design for power electronics, semiconductors and cloud-based software technologies. Its integrated approach to energy solutions increases a home energy potential while, providing advanced monitoring and remote maintenance capabilities. The Enphase Energy System uses a single technology platform for seamless management of the whole solution, enables rapid commissioning with the Enphase Installer Application, consumption monitoring with Enphase IQ Gateway with IQ Combiner+, Enphase Application, a cloud-based energy management platform and its IQ Battery. Its commercial systems have been deployed in approximately 145 countries.</v>
     <v>2821</v>
@@ -1901,25 +1907,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>47281 Bayside Parkway, FREMONT, CA, 94538 US</v>
-    <v>106.74</v>
+    <v>108.46</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45261.905302152343</v>
+    <v>45269.041442823436</v>
     <v>0</v>
-    <v>98.88</v>
-    <v>14545433824</v>
+    <v>101.64</v>
+    <v>14066139112</v>
     <v>ENPHASE ENERGY, INC.</v>
     <v>ENPHASE ENERGY, INC.</v>
-    <v>100.17</v>
-    <v>25.645700000000001</v>
-    <v>101.02</v>
-    <v>106.52</v>
-    <v>107</v>
+    <v>107.38</v>
+    <v>27.207000000000001</v>
+    <v>107.17</v>
+    <v>103.01</v>
+    <v>103.05</v>
     <v>136551200</v>
     <v>ENPH</v>
     <v>ENPHASE ENERGY, INC. (XNAS:ENPH)</v>
-    <v>4326050</v>
-    <v>5895222</v>
+    <v>4408879</v>
+    <v>4637247</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -14089,7 +14095,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>14545433824</v>
+        <v>14066139112</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>201</v>
@@ -14117,7 +14123,7 @@
       </c>
       <c r="I3" s="56">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>19589971164.944275</v>
+        <v>19663417655.803963</v>
       </c>
       <c r="J3" s="57" t="s">
         <v>205</v>
@@ -14169,14 +14175,14 @@
       </c>
       <c r="I4" s="40">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15447261264.674788</v>
+        <v>15511161266.078186</v>
       </c>
       <c r="J4" s="62" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="64" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.4444999999999993E-2</v>
+        <v>-3.8816999999999997E-2</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>251</v>
@@ -14221,14 +14227,14 @@
       </c>
       <c r="I5" s="40">
         <f>I4+G5-G6</f>
-        <v>15953256264.674789</v>
+        <v>16017156266.078186</v>
       </c>
       <c r="J5" s="62" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="67" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>106.52</v>
+        <v>103.01</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>218</v>
@@ -14248,7 +14254,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="69">
         <f>O20/F10</f>
-        <v>6.2912776055363322</v>
+        <v>6.0839702041522488</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>220</v>
@@ -14276,14 +14282,14 @@
       </c>
       <c r="I6" s="64">
         <f>N25</f>
-        <v>0.1005539652170902</v>
+        <v>0.10027175722492603</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="42">
         <f>I5/G4</f>
-        <v>88.592636802174511</v>
+        <v>88.947490351949469</v>
       </c>
       <c r="L6" s="70" t="s">
         <v>224</v>
@@ -14303,14 +14309,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>23.347405817014447</v>
+        <v>22.578072410914928</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="73">
         <f>F15/O21</f>
-        <v>3.8131479658032631E-2</v>
+        <v>3.9321288232858048E-2</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>227</v>
@@ -14337,7 +14343,7 @@
       </c>
       <c r="K7" s="79">
         <f>K6/K5-1</f>
-        <v>-0.16830044308886116</v>
+        <v>-0.13651596590671333</v>
       </c>
       <c r="L7" s="80" t="s">
         <v>230</v>
@@ -14664,7 +14670,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -14711,7 +14717,7 @@
       </c>
       <c r="O15" s="107" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6049</v>
+        <v>1.5831999999999999</v>
       </c>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -14816,7 +14822,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10897632100000001</v>
+        <v>0.10895512800000001</v>
       </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -14898,7 +14904,7 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>14545433824</v>
+        <v>14066139112</v>
       </c>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -14928,7 +14934,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>15839930824</v>
+        <v>15360636112</v>
       </c>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -14956,7 +14962,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>8.1723652355768645E-2</v>
+        <v>8.4273658366837825E-2</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -14981,7 +14987,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.91827634764423138</v>
+        <v>0.91572634163316213</v>
       </c>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -15025,7 +15031,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.1005539652170902</v>
+        <v>0.10027175722492603</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="39"/>
